--- a/Saved_file/EM003/2026_03/work_logs_EM003_2026_03.xlsx
+++ b/Saved_file/EM003/2026_03/work_logs_EM003_2026_03.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-03-06 12:54:48</t>
+          <t>2026-03-05 11:27:53</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.858</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260306_000</t>
+          <t>SESS_20260305_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12:54:48</t>
+          <t>11:27:53</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-03-04 19:47:39</t>
+          <t>2026-03-26 14:27:49</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.723</t>
+          <t>Face verification failed - Similarity: 0.215</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260304_001</t>
+          <t>SESS_20260326_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>19:47:39</t>
+          <t>14:27:49</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-03-24 14:57:25</t>
+          <t>2026-03-23 20:25:04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.734</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260324_002</t>
+          <t>SESS_20260323_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,34 +611,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-03-24</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14:57:25</t>
+          <t>20:25:04</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-03-26 08:47:21</t>
+          <t>2026-03-18 11:38:13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.279</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260326_003</t>
+          <t>SESS_20260318_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -661,34 +661,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-03-26</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08:47:21</t>
+          <t>11:38:13</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-03-19 08:02:34</t>
+          <t>2026-03-18 20:00:12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.836</t>
+          <t>Mouse anomaly detected - Score: 0.859</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260319_004</t>
+          <t>SESS_20260318_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08:02:34</t>
+          <t>20:00:12</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -728,17 +728,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-03-11 15:19:23</t>
+          <t>2026-03-17 10:41:08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.224</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260311_005</t>
+          <t>SESS_20260317_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -761,34 +761,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15:19:23</t>
+          <t>10:41:08</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-03-28 08:52:06</t>
+          <t>2026-03-07 13:30:35</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.455</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260328_006</t>
+          <t>SESS_20260307_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -811,34 +811,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>08:52:06</t>
+          <t>13:30:35</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-03-22 14:22:11</t>
+          <t>2026-03-23 16:00:08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.393</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260322_007</t>
+          <t>SESS_20260323_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -861,34 +861,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14:22:11</t>
+          <t>16:00:08</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-03-05 09:33:35</t>
+          <t>2026-03-27 16:01:42</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.408</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260305_008</t>
+          <t>SESS_20260327_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -911,24 +911,24 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09:33:35</t>
+          <t>16:01:42</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-03-07 11:29:22</t>
+          <t>2026-03-01 15:53:37</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260307_009</t>
+          <t>SESS_20260301_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11:29:22</t>
+          <t>15:53:37</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -978,17 +978,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-03-10 12:32:18</t>
+          <t>2026-03-24 14:11:42</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.743</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20260310_010</t>
+          <t>SESS_20260324_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1011,34 +1011,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12:32:18</t>
+          <t>14:11:42</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-03-06 17:15:54</t>
+          <t>2026-03-16 16:03:27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.715</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SESS_20260306_011</t>
+          <t>SESS_20260316_011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1061,65 +1061,15 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:15:54</t>
+          <t>16:03:27</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2026-03-04 20:08:07</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SESSION_START</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SESS_20260304_012</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>20:08:07</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
         <is>
           <t>Browser</t>
         </is>
@@ -1136,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1279,7 +1229,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-03-01 14:42:46</t>
+          <t>2026-03-02 13:03:13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1289,7 +1239,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.323</t>
+          <t>Mouse session - Score: 0.289</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1299,7 +1249,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MOUSE_20260301_000</t>
+          <t>MOUSE_20260302_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1312,12 +1262,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14:42:46</t>
+          <t>13:03:13</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1326,58 +1276,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>13998</v>
+        <v>29960</v>
       </c>
       <c r="L2" t="n">
-        <v>13998</v>
+        <v>29960</v>
       </c>
       <c r="M2" t="n">
-        <v>31803.84</v>
+        <v>6914.11</v>
       </c>
       <c r="N2" t="n">
-        <v>19082.3</v>
+        <v>4148.46</v>
       </c>
       <c r="O2" t="n">
-        <v>12721.53</v>
+        <v>2765.64</v>
       </c>
       <c r="P2" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>55.77</v>
+        <v>54.62</v>
       </c>
       <c r="S2" t="n">
-        <v>570.26</v>
+        <v>126.58</v>
       </c>
       <c r="T2" t="n">
-        <v>33.65</v>
+        <v>13.67</v>
       </c>
       <c r="U2" t="n">
-        <v>342.16</v>
+        <v>75.95</v>
       </c>
       <c r="V2" t="n">
-        <v>228.1</v>
+        <v>50.63</v>
       </c>
       <c r="W2" t="n">
-        <v>9.34</v>
+        <v>15.32</v>
       </c>
       <c r="X2" t="n">
-        <v>21.97</v>
+        <v>4.61</v>
       </c>
       <c r="Y2" t="n">
-        <v>55.77</v>
+        <v>54.62</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.323</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-03-01 14:52:20</t>
+          <t>2026-03-02 15:23:51</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1387,7 +1337,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.354</t>
+          <t>Mouse session - Score: 0.395</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1397,7 +1347,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MOUSE_20260301_001</t>
+          <t>MOUSE_20260302_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1410,12 +1360,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14:52:20</t>
+          <t>15:23:51</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1424,58 +1374,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>8182</v>
+        <v>24320</v>
       </c>
       <c r="L3" t="n">
-        <v>8182</v>
+        <v>24320</v>
       </c>
       <c r="M3" t="n">
-        <v>16544.03</v>
+        <v>10721.32</v>
       </c>
       <c r="N3" t="n">
-        <v>9926.42</v>
+        <v>6432.79</v>
       </c>
       <c r="O3" t="n">
-        <v>6617.61</v>
+        <v>4288.53</v>
       </c>
       <c r="P3" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>150.45</v>
+        <v>108.53</v>
       </c>
       <c r="S3" t="n">
-        <v>109.96</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>41.26</v>
+        <v>37.43</v>
       </c>
       <c r="U3" t="n">
-        <v>65.98</v>
+        <v>59.27</v>
       </c>
       <c r="V3" t="n">
-        <v>43.99</v>
+        <v>39.52</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>29.64</v>
       </c>
       <c r="X3" t="n">
-        <v>11.91</v>
+        <v>28.57</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.45</v>
+        <v>108.53</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.354</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-03-01 14:59:57</t>
+          <t>2026-03-02 09:26:16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1485,7 +1435,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.406</t>
+          <t>Mouse session - Score: 0.425</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1495,7 +1445,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MOUSE_20260301_002</t>
+          <t>MOUSE_20260302_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1508,12 +1458,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14:59:57</t>
+          <t>09:26:16</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1522,58 +1472,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>13141</v>
+        <v>23231</v>
       </c>
       <c r="L4" t="n">
-        <v>13141</v>
+        <v>23231</v>
       </c>
       <c r="M4" t="n">
-        <v>14242.99</v>
+        <v>36056.79</v>
       </c>
       <c r="N4" t="n">
-        <v>8545.799999999999</v>
+        <v>21634.07</v>
       </c>
       <c r="O4" t="n">
-        <v>5697.2</v>
+        <v>14422.71</v>
       </c>
       <c r="P4" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R4" t="n">
-        <v>78.14</v>
+        <v>117.28</v>
       </c>
       <c r="S4" t="n">
-        <v>182.29</v>
+        <v>307.45</v>
       </c>
       <c r="T4" t="n">
-        <v>35.31</v>
+        <v>38.07</v>
       </c>
       <c r="U4" t="n">
-        <v>109.37</v>
+        <v>184.47</v>
       </c>
       <c r="V4" t="n">
-        <v>72.91</v>
+        <v>122.98</v>
       </c>
       <c r="W4" t="n">
-        <v>21.82</v>
+        <v>11.13</v>
       </c>
       <c r="X4" t="n">
-        <v>14.3</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.14</v>
+        <v>117.28</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.406</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-03-02 13:02:05</t>
+          <t>2026-03-02 14:02:56</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1583,7 +1533,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.278</t>
+          <t>Mouse session - Score: 0.409</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1593,7 +1543,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MOUSE_20260302_000</t>
+          <t>MOUSE_20260302_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1611,7 +1561,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13:02:05</t>
+          <t>14:02:56</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1620,58 +1570,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>8120</v>
+        <v>6644</v>
       </c>
       <c r="L5" t="n">
-        <v>8120</v>
+        <v>6644</v>
       </c>
       <c r="M5" t="n">
-        <v>30967.48</v>
+        <v>39414.35</v>
       </c>
       <c r="N5" t="n">
-        <v>18580.49</v>
+        <v>23648.61</v>
       </c>
       <c r="O5" t="n">
-        <v>12386.99</v>
+        <v>15765.74</v>
       </c>
       <c r="P5" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R5" t="n">
-        <v>97.73</v>
+        <v>46.11</v>
       </c>
       <c r="S5" t="n">
-        <v>316.87</v>
+        <v>854.78</v>
       </c>
       <c r="T5" t="n">
-        <v>46.69</v>
+        <v>19.68</v>
       </c>
       <c r="U5" t="n">
-        <v>190.12</v>
+        <v>512.87</v>
       </c>
       <c r="V5" t="n">
-        <v>126.75</v>
+        <v>341.91</v>
       </c>
       <c r="W5" t="n">
-        <v>21.55</v>
+        <v>22.78</v>
       </c>
       <c r="X5" t="n">
-        <v>15.36</v>
+        <v>5.57</v>
       </c>
       <c r="Y5" t="n">
-        <v>97.73</v>
+        <v>46.11</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.278</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-03-02 13:05:20</t>
+          <t>2026-03-03 13:03:29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1681,7 +1631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.812</t>
+          <t>Mouse session - Score: 0.948</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1691,7 +1641,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MOUSE_20260302_001</t>
+          <t>MOUSE_20260303_000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1704,12 +1654,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>13:05:20</t>
+          <t>13:03:29</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1718,58 +1668,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5379</v>
+        <v>13385</v>
       </c>
       <c r="L6" t="n">
-        <v>5379</v>
+        <v>13385</v>
       </c>
       <c r="M6" t="n">
-        <v>28592.04</v>
+        <v>10444.56</v>
       </c>
       <c r="N6" t="n">
-        <v>17155.23</v>
+        <v>6266.74</v>
       </c>
       <c r="O6" t="n">
-        <v>11436.82</v>
+        <v>4177.83</v>
       </c>
       <c r="P6" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R6" t="n">
-        <v>105.04</v>
+        <v>155.59</v>
       </c>
       <c r="S6" t="n">
-        <v>272.21</v>
+        <v>67.13</v>
       </c>
       <c r="T6" t="n">
-        <v>47.94</v>
+        <v>48.22</v>
       </c>
       <c r="U6" t="n">
-        <v>163.32</v>
+        <v>40.28</v>
       </c>
       <c r="V6" t="n">
-        <v>108.88</v>
+        <v>26.85</v>
       </c>
       <c r="W6" t="n">
-        <v>9.119999999999999</v>
+        <v>20.93</v>
       </c>
       <c r="X6" t="n">
-        <v>2.61</v>
+        <v>29.71</v>
       </c>
       <c r="Y6" t="n">
-        <v>105.04</v>
+        <v>155.59</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-03-02 13:05:41</t>
+          <t>2026-03-03 15:28:02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1779,7 +1729,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.347</t>
+          <t>Mouse session - Score: 0.870</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1789,25 +1739,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MOUSE_20260302_002</t>
+          <t>MOUSE_20260303_001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13:05:41</t>
+          <t>15:28:02</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1816,58 +1766,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>19250</v>
+        <v>7802</v>
       </c>
       <c r="L7" t="n">
-        <v>19250</v>
+        <v>7802</v>
       </c>
       <c r="M7" t="n">
-        <v>34751.15</v>
+        <v>27784.84</v>
       </c>
       <c r="N7" t="n">
-        <v>20850.69</v>
+        <v>16670.9</v>
       </c>
       <c r="O7" t="n">
-        <v>13900.46</v>
+        <v>11113.94</v>
       </c>
       <c r="P7" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R7" t="n">
-        <v>52.36</v>
+        <v>36.89</v>
       </c>
       <c r="S7" t="n">
-        <v>663.7</v>
+        <v>753.1799999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>46.03</v>
+        <v>34.9</v>
       </c>
       <c r="U7" t="n">
-        <v>398.22</v>
+        <v>451.91</v>
       </c>
       <c r="V7" t="n">
-        <v>265.48</v>
+        <v>301.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.54</v>
+        <v>19.96</v>
       </c>
       <c r="X7" t="n">
-        <v>18.09</v>
+        <v>14.03</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.36</v>
+        <v>36.89</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.347</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-03-03 12:48:07</t>
+          <t>2026-03-03 09:24:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1877,7 +1827,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.340</t>
+          <t>Mouse session - Score: 0.950</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1887,16 +1837,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOUSE_20260303_000</t>
+          <t>MOUSE_20260303_002</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1905,7 +1855,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12:48:07</t>
+          <t>09:24:45</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1914,58 +1864,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>15404</v>
+        <v>23497</v>
       </c>
       <c r="L8" t="n">
-        <v>15404</v>
+        <v>23497</v>
       </c>
       <c r="M8" t="n">
-        <v>10742.23</v>
+        <v>29418.9</v>
       </c>
       <c r="N8" t="n">
-        <v>6445.34</v>
+        <v>17651.34</v>
       </c>
       <c r="O8" t="n">
-        <v>4296.89</v>
+        <v>11767.56</v>
       </c>
       <c r="P8" t="n">
         <v>33</v>
       </c>
       <c r="Q8" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>62.27</v>
+        <v>44.9</v>
       </c>
       <c r="S8" t="n">
-        <v>172.52</v>
+        <v>655.27</v>
       </c>
       <c r="T8" t="n">
-        <v>16.24</v>
+        <v>41.55</v>
       </c>
       <c r="U8" t="n">
-        <v>103.51</v>
+        <v>393.16</v>
       </c>
       <c r="V8" t="n">
-        <v>69.01000000000001</v>
+        <v>262.11</v>
       </c>
       <c r="W8" t="n">
-        <v>10.76</v>
+        <v>13.66</v>
       </c>
       <c r="X8" t="n">
-        <v>7.04</v>
+        <v>28.17</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.27</v>
+        <v>44.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.34</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-03-03 13:58:33</t>
+          <t>2026-03-03 14:55:40</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1975,7 +1925,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.430</t>
+          <t>Mouse session - Score: 0.293</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1985,7 +1935,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MOUSE_20260303_001</t>
+          <t>MOUSE_20260303_003</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2003,7 +1953,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>13:58:33</t>
+          <t>14:55:40</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2012,58 +1962,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>6945</v>
+        <v>24081</v>
       </c>
       <c r="L9" t="n">
-        <v>6945</v>
+        <v>24081</v>
       </c>
       <c r="M9" t="n">
-        <v>5779.21</v>
+        <v>12042.41</v>
       </c>
       <c r="N9" t="n">
-        <v>3467.52</v>
+        <v>7225.44</v>
       </c>
       <c r="O9" t="n">
-        <v>2311.68</v>
+        <v>4816.96</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="Q9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R9" t="n">
-        <v>174.28</v>
+        <v>153.14</v>
       </c>
       <c r="S9" t="n">
-        <v>33.16</v>
+        <v>78.63</v>
       </c>
       <c r="T9" t="n">
-        <v>19</v>
+        <v>23.22</v>
       </c>
       <c r="U9" t="n">
-        <v>19.9</v>
+        <v>47.18</v>
       </c>
       <c r="V9" t="n">
-        <v>13.26</v>
+        <v>31.45</v>
       </c>
       <c r="W9" t="n">
-        <v>18.1</v>
+        <v>7.71</v>
       </c>
       <c r="X9" t="n">
-        <v>17.94</v>
+        <v>7.99</v>
       </c>
       <c r="Y9" t="n">
-        <v>174.28</v>
+        <v>153.14</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.43</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-03-03 16:55:16</t>
+          <t>2026-03-04 13:34:56</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2073,7 +2023,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.383</t>
+          <t>Mouse session - Score: 0.416</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2083,7 +2033,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOUSE_20260303_002</t>
+          <t>MOUSE_20260304_000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2096,12 +2046,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:55:16</t>
+          <t>13:34:56</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2110,58 +2060,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>9458</v>
+        <v>27544</v>
       </c>
       <c r="L10" t="n">
-        <v>9458</v>
+        <v>27544</v>
       </c>
       <c r="M10" t="n">
-        <v>18735.66</v>
+        <v>6821.24</v>
       </c>
       <c r="N10" t="n">
-        <v>11241.39</v>
+        <v>4092.75</v>
       </c>
       <c r="O10" t="n">
-        <v>7494.26</v>
+        <v>2728.5</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R10" t="n">
-        <v>170.14</v>
+        <v>132.38</v>
       </c>
       <c r="S10" t="n">
-        <v>110.12</v>
+        <v>51.53</v>
       </c>
       <c r="T10" t="n">
-        <v>37.1</v>
+        <v>42.32</v>
       </c>
       <c r="U10" t="n">
-        <v>66.06999999999999</v>
+        <v>30.92</v>
       </c>
       <c r="V10" t="n">
-        <v>44.05</v>
+        <v>20.61</v>
       </c>
       <c r="W10" t="n">
-        <v>12.21</v>
+        <v>11.5</v>
       </c>
       <c r="X10" t="n">
-        <v>25.57</v>
+        <v>7.35</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.14</v>
+        <v>132.38</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.383</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-03-04 09:58:39</t>
+          <t>2026-03-04 10:32:08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2171,7 +2121,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.442</t>
+          <t>Mouse session - Score: 0.407</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2181,7 +2131,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MOUSE_20260304_000</t>
+          <t>MOUSE_20260304_001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2199,7 +2149,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>09:58:39</t>
+          <t>10:32:08</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2208,58 +2158,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>7072</v>
+        <v>5305</v>
       </c>
       <c r="L11" t="n">
-        <v>7072</v>
+        <v>5305</v>
       </c>
       <c r="M11" t="n">
-        <v>14948.05</v>
+        <v>27991.21</v>
       </c>
       <c r="N11" t="n">
-        <v>8968.83</v>
+        <v>16794.73</v>
       </c>
       <c r="O11" t="n">
-        <v>5979.22</v>
+        <v>11196.49</v>
       </c>
       <c r="P11" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="Q11" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="R11" t="n">
-        <v>88.45999999999999</v>
+        <v>48.29</v>
       </c>
       <c r="S11" t="n">
-        <v>168.98</v>
+        <v>579.6</v>
       </c>
       <c r="T11" t="n">
-        <v>25.65</v>
+        <v>26.3</v>
       </c>
       <c r="U11" t="n">
-        <v>101.39</v>
+        <v>347.76</v>
       </c>
       <c r="V11" t="n">
-        <v>67.59</v>
+        <v>231.84</v>
       </c>
       <c r="W11" t="n">
-        <v>8.69</v>
+        <v>28.01</v>
       </c>
       <c r="X11" t="n">
-        <v>14.36</v>
+        <v>26.58</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.45999999999999</v>
+        <v>48.29</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.442</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-03-04 13:14:14</t>
+          <t>2026-03-04 17:56:38</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2269,7 +2219,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.890</t>
+          <t>Mouse session - Score: 0.391</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2279,16 +2229,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOUSE_20260304_001</t>
+          <t>MOUSE_20260304_002</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2297,7 +2247,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>13:14:14</t>
+          <t>17:56:38</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2306,58 +2256,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>29945</v>
+        <v>11974</v>
       </c>
       <c r="L12" t="n">
-        <v>29945</v>
+        <v>11974</v>
       </c>
       <c r="M12" t="n">
-        <v>22724.37</v>
+        <v>33934.22</v>
       </c>
       <c r="N12" t="n">
-        <v>13634.62</v>
+        <v>20360.53</v>
       </c>
       <c r="O12" t="n">
-        <v>9089.75</v>
+        <v>13573.69</v>
       </c>
       <c r="P12" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="R12" t="n">
-        <v>146.05</v>
+        <v>110.91</v>
       </c>
       <c r="S12" t="n">
-        <v>155.59</v>
+        <v>305.96</v>
       </c>
       <c r="T12" t="n">
-        <v>32.06</v>
+        <v>23.83</v>
       </c>
       <c r="U12" t="n">
-        <v>93.34999999999999</v>
+        <v>183.57</v>
       </c>
       <c r="V12" t="n">
-        <v>62.24</v>
+        <v>122.38</v>
       </c>
       <c r="W12" t="n">
-        <v>13.07</v>
+        <v>14.55</v>
       </c>
       <c r="X12" t="n">
-        <v>17.26</v>
+        <v>21.84</v>
       </c>
       <c r="Y12" t="n">
-        <v>146.05</v>
+        <v>110.91</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.89</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-03-04 12:09:40</t>
+          <t>2026-03-04 15:01:29</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2367,7 +2317,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.275</t>
+          <t>Mouse session - Score: 0.350</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2377,7 +2327,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOUSE_20260304_002</t>
+          <t>MOUSE_20260304_003</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2395,7 +2345,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12:09:40</t>
+          <t>15:01:29</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2404,58 +2354,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>22340</v>
+        <v>16837</v>
       </c>
       <c r="L13" t="n">
-        <v>22340</v>
+        <v>16837</v>
       </c>
       <c r="M13" t="n">
-        <v>28869.19</v>
+        <v>34735.95</v>
       </c>
       <c r="N13" t="n">
-        <v>17321.52</v>
+        <v>20841.57</v>
       </c>
       <c r="O13" t="n">
-        <v>11547.68</v>
+        <v>13894.38</v>
       </c>
       <c r="P13" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="Q13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R13" t="n">
-        <v>163.58</v>
+        <v>36.94</v>
       </c>
       <c r="S13" t="n">
-        <v>176.48</v>
+        <v>940.42</v>
       </c>
       <c r="T13" t="n">
-        <v>6.18</v>
+        <v>31.47</v>
       </c>
       <c r="U13" t="n">
-        <v>105.89</v>
+        <v>564.25</v>
       </c>
       <c r="V13" t="n">
-        <v>70.59</v>
+        <v>376.17</v>
       </c>
       <c r="W13" t="n">
-        <v>18.49</v>
+        <v>22.2</v>
       </c>
       <c r="X13" t="n">
-        <v>28.95</v>
+        <v>18.32</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.58</v>
+        <v>36.94</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.275</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-03-05 15:44:14</t>
+          <t>2026-03-05 13:09:07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2465,7 +2415,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.310</t>
+          <t>Mouse session - Score: 0.269</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2493,7 +2443,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15:44:14</t>
+          <t>13:09:07</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2502,58 +2452,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>5497</v>
+        <v>26554</v>
       </c>
       <c r="L14" t="n">
-        <v>5497</v>
+        <v>26554</v>
       </c>
       <c r="M14" t="n">
-        <v>34680.42</v>
+        <v>14435.02</v>
       </c>
       <c r="N14" t="n">
-        <v>20808.25</v>
+        <v>8661.01</v>
       </c>
       <c r="O14" t="n">
-        <v>13872.17</v>
+        <v>5774.01</v>
       </c>
       <c r="P14" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R14" t="n">
-        <v>110.96</v>
+        <v>128.88</v>
       </c>
       <c r="S14" t="n">
-        <v>312.54</v>
+        <v>112</v>
       </c>
       <c r="T14" t="n">
-        <v>32.58</v>
+        <v>31.83</v>
       </c>
       <c r="U14" t="n">
-        <v>187.52</v>
+        <v>67.2</v>
       </c>
       <c r="V14" t="n">
-        <v>125.02</v>
+        <v>44.8</v>
       </c>
       <c r="W14" t="n">
-        <v>27.39</v>
+        <v>3.84</v>
       </c>
       <c r="X14" t="n">
-        <v>6.57</v>
+        <v>25.68</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.96</v>
+        <v>128.88</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.31</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-03-05 12:53:26</t>
+          <t>2026-03-05 10:46:48</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2563,7 +2513,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.444</t>
+          <t>Mouse session - Score: 0.340</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2591,7 +2541,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12:53:26</t>
+          <t>10:46:48</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2600,58 +2550,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>16425</v>
+        <v>15752</v>
       </c>
       <c r="L15" t="n">
-        <v>16425</v>
+        <v>15752</v>
       </c>
       <c r="M15" t="n">
-        <v>31510.37</v>
+        <v>34580.97</v>
       </c>
       <c r="N15" t="n">
-        <v>18906.22</v>
+        <v>20748.58</v>
       </c>
       <c r="O15" t="n">
-        <v>12604.15</v>
+        <v>13832.39</v>
       </c>
       <c r="P15" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>130.81</v>
+        <v>105.1</v>
       </c>
       <c r="S15" t="n">
-        <v>240.89</v>
+        <v>329.02</v>
       </c>
       <c r="T15" t="n">
-        <v>21.21</v>
+        <v>20.94</v>
       </c>
       <c r="U15" t="n">
-        <v>144.53</v>
+        <v>197.41</v>
       </c>
       <c r="V15" t="n">
-        <v>96.34999999999999</v>
+        <v>131.61</v>
       </c>
       <c r="W15" t="n">
-        <v>24.01</v>
+        <v>25.23</v>
       </c>
       <c r="X15" t="n">
-        <v>6.1</v>
+        <v>16.33</v>
       </c>
       <c r="Y15" t="n">
-        <v>130.81</v>
+        <v>105.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.444</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-03-05 17:33:37</t>
+          <t>2026-03-05 09:32:49</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2661,7 +2611,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.388</t>
+          <t>Mouse session - Score: 0.317</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2689,7 +2639,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>17:33:37</t>
+          <t>09:32:49</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2698,58 +2648,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6471</v>
+        <v>13127</v>
       </c>
       <c r="L16" t="n">
-        <v>6471</v>
+        <v>13127</v>
       </c>
       <c r="M16" t="n">
-        <v>38122.15</v>
+        <v>21177.6</v>
       </c>
       <c r="N16" t="n">
-        <v>22873.29</v>
+        <v>12706.56</v>
       </c>
       <c r="O16" t="n">
-        <v>15248.86</v>
+        <v>8471.040000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="Q16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R16" t="n">
-        <v>67.34</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>566.14</v>
+        <v>214.77</v>
       </c>
       <c r="T16" t="n">
-        <v>49.5</v>
+        <v>32.13</v>
       </c>
       <c r="U16" t="n">
-        <v>339.68</v>
+        <v>128.86</v>
       </c>
       <c r="V16" t="n">
-        <v>226.46</v>
+        <v>85.91</v>
       </c>
       <c r="W16" t="n">
-        <v>17.82</v>
+        <v>14.07</v>
       </c>
       <c r="X16" t="n">
-        <v>20.09</v>
+        <v>2.71</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.34</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.388</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-03-06 10:33:34</t>
+          <t>2026-03-05 15:00:23</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2759,7 +2709,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.280</t>
+          <t>Mouse session - Score: 0.408</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2769,7 +2719,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOUSE_20260306_000</t>
+          <t>MOUSE_20260305_003</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2782,12 +2732,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10:33:34</t>
+          <t>15:00:23</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2796,58 +2746,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>14384</v>
+        <v>6295</v>
       </c>
       <c r="L17" t="n">
-        <v>14384</v>
+        <v>6295</v>
       </c>
       <c r="M17" t="n">
-        <v>26438.5</v>
+        <v>19494.4</v>
       </c>
       <c r="N17" t="n">
-        <v>15863.1</v>
+        <v>11696.64</v>
       </c>
       <c r="O17" t="n">
-        <v>10575.4</v>
+        <v>7797.76</v>
       </c>
       <c r="P17" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q17" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="R17" t="n">
-        <v>100.02</v>
+        <v>161.39</v>
       </c>
       <c r="S17" t="n">
-        <v>264.34</v>
+        <v>120.79</v>
       </c>
       <c r="T17" t="n">
-        <v>38.31</v>
+        <v>32.6</v>
       </c>
       <c r="U17" t="n">
-        <v>158.61</v>
+        <v>72.47</v>
       </c>
       <c r="V17" t="n">
-        <v>105.74</v>
+        <v>48.31</v>
       </c>
       <c r="W17" t="n">
-        <v>25.06</v>
+        <v>4.76</v>
       </c>
       <c r="X17" t="n">
-        <v>2.96</v>
+        <v>17.86</v>
       </c>
       <c r="Y17" t="n">
-        <v>100.02</v>
+        <v>161.39</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.28</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-03-06 09:41:05</t>
+          <t>2026-03-06 13:47:56</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2857,7 +2807,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.832</t>
+          <t>Mouse session - Score: 0.349</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2867,16 +2817,16 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MOUSE_20260306_001</t>
+          <t>MOUSE_20260306_000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2885,7 +2835,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09:41:05</t>
+          <t>13:47:56</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2894,58 +2844,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>19164</v>
+        <v>10129</v>
       </c>
       <c r="L18" t="n">
-        <v>19164</v>
+        <v>10129</v>
       </c>
       <c r="M18" t="n">
-        <v>14416.57</v>
+        <v>31820.2</v>
       </c>
       <c r="N18" t="n">
-        <v>8649.940000000001</v>
+        <v>19092.12</v>
       </c>
       <c r="O18" t="n">
-        <v>5766.63</v>
+        <v>12728.08</v>
       </c>
       <c r="P18" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R18" t="n">
-        <v>137.33</v>
+        <v>93.09</v>
       </c>
       <c r="S18" t="n">
-        <v>104.98</v>
+        <v>341.82</v>
       </c>
       <c r="T18" t="n">
-        <v>21.92</v>
+        <v>16.42</v>
       </c>
       <c r="U18" t="n">
-        <v>62.99</v>
+        <v>205.09</v>
       </c>
       <c r="V18" t="n">
-        <v>41.99</v>
+        <v>136.73</v>
       </c>
       <c r="W18" t="n">
-        <v>12.93</v>
+        <v>5.55</v>
       </c>
       <c r="X18" t="n">
-        <v>26.96</v>
+        <v>23.46</v>
       </c>
       <c r="Y18" t="n">
-        <v>137.33</v>
+        <v>93.09</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.832</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-03-06 09:54:13</t>
+          <t>2026-03-06 11:35:46</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2955,7 +2905,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.312</t>
+          <t>Mouse session - Score: 0.890</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2965,16 +2915,16 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MOUSE_20260306_002</t>
+          <t>MOUSE_20260306_001</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2983,7 +2933,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>09:54:13</t>
+          <t>11:35:46</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2992,58 +2942,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>17932</v>
+        <v>20701</v>
       </c>
       <c r="L19" t="n">
-        <v>17932</v>
+        <v>20701</v>
       </c>
       <c r="M19" t="n">
-        <v>39674.7</v>
+        <v>9529.09</v>
       </c>
       <c r="N19" t="n">
-        <v>23804.82</v>
+        <v>5717.45</v>
       </c>
       <c r="O19" t="n">
-        <v>15869.88</v>
+        <v>3811.64</v>
       </c>
       <c r="P19" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="R19" t="n">
-        <v>82.48999999999999</v>
+        <v>86.88</v>
       </c>
       <c r="S19" t="n">
-        <v>480.99</v>
+        <v>109.68</v>
       </c>
       <c r="T19" t="n">
-        <v>7.76</v>
+        <v>23.47</v>
       </c>
       <c r="U19" t="n">
-        <v>288.59</v>
+        <v>65.81</v>
       </c>
       <c r="V19" t="n">
-        <v>192.4</v>
+        <v>43.87</v>
       </c>
       <c r="W19" t="n">
-        <v>11</v>
+        <v>14.2</v>
       </c>
       <c r="X19" t="n">
-        <v>12.46</v>
+        <v>27.05</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.48999999999999</v>
+        <v>86.88</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.312</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-03-09 17:29:15</t>
+          <t>2026-03-06 09:46:53</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3053,7 +3003,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.448</t>
+          <t>Mouse session - Score: 0.274</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3063,7 +3013,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20260309_000</t>
+          <t>MOUSE_20260306_002</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3076,12 +3026,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>17:29:15</t>
+          <t>09:46:53</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3090,58 +3040,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>16976</v>
+        <v>14986</v>
       </c>
       <c r="L20" t="n">
-        <v>16976</v>
+        <v>14986</v>
       </c>
       <c r="M20" t="n">
-        <v>22365.06</v>
+        <v>8051.78</v>
       </c>
       <c r="N20" t="n">
-        <v>13419.04</v>
+        <v>4831.07</v>
       </c>
       <c r="O20" t="n">
-        <v>8946.02</v>
+        <v>3220.71</v>
       </c>
       <c r="P20" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R20" t="n">
-        <v>36.08</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>619.8200000000001</v>
+        <v>97.98</v>
       </c>
       <c r="T20" t="n">
-        <v>30.44</v>
+        <v>28.17</v>
       </c>
       <c r="U20" t="n">
-        <v>371.89</v>
+        <v>58.79</v>
       </c>
       <c r="V20" t="n">
-        <v>247.93</v>
+        <v>39.19</v>
       </c>
       <c r="W20" t="n">
-        <v>15.18</v>
+        <v>27.02</v>
       </c>
       <c r="X20" t="n">
-        <v>21.98</v>
+        <v>7.66</v>
       </c>
       <c r="Y20" t="n">
-        <v>36.08</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.448</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-03-09 14:07:39</t>
+          <t>2026-03-06 15:18:35</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3151,7 +3101,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.822</t>
+          <t>Mouse session - Score: 0.293</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3161,25 +3111,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20260309_001</t>
+          <t>MOUSE_20260306_003</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14:07:39</t>
+          <t>15:18:35</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3188,58 +3138,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>27615</v>
+        <v>10005</v>
       </c>
       <c r="L21" t="n">
-        <v>27615</v>
+        <v>10005</v>
       </c>
       <c r="M21" t="n">
-        <v>19283.71</v>
+        <v>20219.07</v>
       </c>
       <c r="N21" t="n">
-        <v>11570.23</v>
+        <v>12131.44</v>
       </c>
       <c r="O21" t="n">
-        <v>7713.49</v>
+        <v>8087.63</v>
       </c>
       <c r="P21" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R21" t="n">
-        <v>49.81</v>
+        <v>104.8</v>
       </c>
       <c r="S21" t="n">
-        <v>387.12</v>
+        <v>192.93</v>
       </c>
       <c r="T21" t="n">
-        <v>28.29</v>
+        <v>14.27</v>
       </c>
       <c r="U21" t="n">
-        <v>232.27</v>
+        <v>115.76</v>
       </c>
       <c r="V21" t="n">
-        <v>154.85</v>
+        <v>77.17</v>
       </c>
       <c r="W21" t="n">
-        <v>17.8</v>
+        <v>13.86</v>
       </c>
       <c r="X21" t="n">
-        <v>15.9</v>
+        <v>11.33</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.81</v>
+        <v>104.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.822</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-03-09 14:32:12</t>
+          <t>2026-03-07 10:01:47</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3249,7 +3199,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.253</t>
+          <t>Mouse session - Score: 0.353</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3259,7 +3209,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20260309_002</t>
+          <t>MOUSE_20260307_000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3272,12 +3222,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14:32:12</t>
+          <t>10:01:47</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3286,58 +3236,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>15214</v>
+        <v>5665</v>
       </c>
       <c r="L22" t="n">
-        <v>15214</v>
+        <v>5665</v>
       </c>
       <c r="M22" t="n">
-        <v>37590.56</v>
+        <v>20018.18</v>
       </c>
       <c r="N22" t="n">
-        <v>22554.34</v>
+        <v>12010.91</v>
       </c>
       <c r="O22" t="n">
-        <v>15036.23</v>
+        <v>8007.27</v>
       </c>
       <c r="P22" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Q22" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="R22" t="n">
-        <v>125.87</v>
+        <v>168.78</v>
       </c>
       <c r="S22" t="n">
-        <v>298.65</v>
+        <v>118.61</v>
       </c>
       <c r="T22" t="n">
-        <v>8.41</v>
+        <v>16.9</v>
       </c>
       <c r="U22" t="n">
-        <v>179.19</v>
+        <v>71.16</v>
       </c>
       <c r="V22" t="n">
-        <v>119.46</v>
+        <v>47.44</v>
       </c>
       <c r="W22" t="n">
-        <v>6.31</v>
+        <v>14.8</v>
       </c>
       <c r="X22" t="n">
-        <v>5.53</v>
+        <v>21.53</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.87</v>
+        <v>168.78</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.253</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-03-10 14:51:32</t>
+          <t>2026-03-07 10:55:49</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3347,7 +3297,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.447</t>
+          <t>Mouse session - Score: 0.421</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3357,7 +3307,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MOUSE_20260310_000</t>
+          <t>MOUSE_20260307_001</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3370,12 +3320,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14:51:32</t>
+          <t>10:55:49</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3384,58 +3334,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>15541</v>
+        <v>6566</v>
       </c>
       <c r="L23" t="n">
-        <v>15541</v>
+        <v>6566</v>
       </c>
       <c r="M23" t="n">
-        <v>31889.96</v>
+        <v>9503.360000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>19133.97</v>
+        <v>5702.01</v>
       </c>
       <c r="O23" t="n">
-        <v>12755.98</v>
+        <v>3801.34</v>
       </c>
       <c r="P23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q23" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R23" t="n">
-        <v>117.82</v>
+        <v>119.32</v>
       </c>
       <c r="S23" t="n">
-        <v>270.66</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="T23" t="n">
-        <v>40</v>
+        <v>10.49</v>
       </c>
       <c r="U23" t="n">
-        <v>162.39</v>
+        <v>47.79</v>
       </c>
       <c r="V23" t="n">
-        <v>108.26</v>
+        <v>31.86</v>
       </c>
       <c r="W23" t="n">
-        <v>9.300000000000001</v>
+        <v>13.03</v>
       </c>
       <c r="X23" t="n">
-        <v>13.06</v>
+        <v>5.01</v>
       </c>
       <c r="Y23" t="n">
-        <v>117.82</v>
+        <v>119.32</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.447</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-03-10 11:39:56</t>
+          <t>2026-03-07 14:57:12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3445,7 +3395,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.267</t>
+          <t>Mouse session - Score: 0.309</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3455,7 +3405,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MOUSE_20260310_001</t>
+          <t>MOUSE_20260307_002</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3468,12 +3418,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11:39:56</t>
+          <t>14:57:12</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3482,58 +3432,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>6160</v>
+        <v>5859</v>
       </c>
       <c r="L24" t="n">
-        <v>6160</v>
+        <v>5859</v>
       </c>
       <c r="M24" t="n">
-        <v>28161.16</v>
+        <v>13976.39</v>
       </c>
       <c r="N24" t="n">
-        <v>16896.69</v>
+        <v>8385.84</v>
       </c>
       <c r="O24" t="n">
-        <v>11264.46</v>
+        <v>5590.56</v>
       </c>
       <c r="P24" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q24" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="R24" t="n">
-        <v>117.67</v>
+        <v>53.09</v>
       </c>
       <c r="S24" t="n">
-        <v>239.33</v>
+        <v>263.27</v>
       </c>
       <c r="T24" t="n">
-        <v>24.6</v>
+        <v>19.81</v>
       </c>
       <c r="U24" t="n">
-        <v>143.6</v>
+        <v>157.96</v>
       </c>
       <c r="V24" t="n">
-        <v>95.73</v>
+        <v>105.31</v>
       </c>
       <c r="W24" t="n">
-        <v>25.61</v>
+        <v>4.9</v>
       </c>
       <c r="X24" t="n">
-        <v>29.32</v>
+        <v>22.45</v>
       </c>
       <c r="Y24" t="n">
-        <v>117.67</v>
+        <v>53.09</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.267</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-03-10 13:38:53</t>
+          <t>2026-03-07 15:05:52</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3543,7 +3493,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.298</t>
+          <t>Mouse session - Score: 0.909</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3553,25 +3503,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MOUSE_20260310_002</t>
+          <t>MOUSE_20260307_003</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>13:38:53</t>
+          <t>15:05:52</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3580,58 +3530,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>9190</v>
+        <v>19212</v>
       </c>
       <c r="L25" t="n">
-        <v>9190</v>
+        <v>19212</v>
       </c>
       <c r="M25" t="n">
-        <v>7642.43</v>
+        <v>6915.54</v>
       </c>
       <c r="N25" t="n">
-        <v>4585.46</v>
+        <v>4149.33</v>
       </c>
       <c r="O25" t="n">
-        <v>3056.97</v>
+        <v>2766.22</v>
       </c>
       <c r="P25" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R25" t="n">
-        <v>110.44</v>
+        <v>85.39</v>
       </c>
       <c r="S25" t="n">
-        <v>69.2</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="T25" t="n">
-        <v>21.1</v>
+        <v>35.04</v>
       </c>
       <c r="U25" t="n">
-        <v>41.52</v>
+        <v>48.59</v>
       </c>
       <c r="V25" t="n">
-        <v>27.68</v>
+        <v>32.4</v>
       </c>
       <c r="W25" t="n">
-        <v>12.61</v>
+        <v>9.81</v>
       </c>
       <c r="X25" t="n">
-        <v>6.25</v>
+        <v>15.23</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.44</v>
+        <v>85.39</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.298</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-03-11 13:32:37</t>
+          <t>2026-03-09 11:13:48</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3641,7 +3591,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.351</t>
+          <t>Mouse session - Score: 0.448</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3651,7 +3601,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MOUSE_20260311_000</t>
+          <t>MOUSE_20260309_000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3664,12 +3614,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13:32:37</t>
+          <t>11:13:48</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3678,58 +3628,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>7293</v>
+        <v>23163</v>
       </c>
       <c r="L26" t="n">
-        <v>7293</v>
+        <v>23163</v>
       </c>
       <c r="M26" t="n">
-        <v>22793.72</v>
+        <v>19746.49</v>
       </c>
       <c r="N26" t="n">
-        <v>13676.23</v>
+        <v>11847.9</v>
       </c>
       <c r="O26" t="n">
-        <v>9117.49</v>
+        <v>7898.6</v>
       </c>
       <c r="P26" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q26" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R26" t="n">
-        <v>38.86</v>
+        <v>33.33</v>
       </c>
       <c r="S26" t="n">
-        <v>586.59</v>
+        <v>592.39</v>
       </c>
       <c r="T26" t="n">
-        <v>37.36</v>
+        <v>42.24</v>
       </c>
       <c r="U26" t="n">
-        <v>351.95</v>
+        <v>355.43</v>
       </c>
       <c r="V26" t="n">
-        <v>234.64</v>
+        <v>236.96</v>
       </c>
       <c r="W26" t="n">
-        <v>3.27</v>
+        <v>4.56</v>
       </c>
       <c r="X26" t="n">
-        <v>7.07</v>
+        <v>12.18</v>
       </c>
       <c r="Y26" t="n">
-        <v>38.86</v>
+        <v>33.33</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.351</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-03-11 15:16:58</t>
+          <t>2026-03-09 16:29:21</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3739,7 +3689,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.389</t>
+          <t>Mouse session - Score: 0.274</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3749,7 +3699,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MOUSE_20260311_001</t>
+          <t>MOUSE_20260309_001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3762,12 +3712,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15:16:58</t>
+          <t>16:29:21</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3776,58 +3726,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>7233</v>
+        <v>11303</v>
       </c>
       <c r="L27" t="n">
-        <v>7233</v>
+        <v>11303</v>
       </c>
       <c r="M27" t="n">
-        <v>25408.7</v>
+        <v>7337.15</v>
       </c>
       <c r="N27" t="n">
-        <v>15245.22</v>
+        <v>4402.29</v>
       </c>
       <c r="O27" t="n">
-        <v>10163.48</v>
+        <v>2934.86</v>
       </c>
       <c r="P27" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="Q27" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="R27" t="n">
-        <v>90.41</v>
+        <v>141.67</v>
       </c>
       <c r="S27" t="n">
-        <v>281.05</v>
+        <v>51.79</v>
       </c>
       <c r="T27" t="n">
-        <v>22.42</v>
+        <v>24.61</v>
       </c>
       <c r="U27" t="n">
-        <v>168.63</v>
+        <v>31.07</v>
       </c>
       <c r="V27" t="n">
-        <v>112.42</v>
+        <v>20.72</v>
       </c>
       <c r="W27" t="n">
-        <v>22.49</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>10.25</v>
+        <v>17.77</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.41</v>
+        <v>141.67</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.389</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-03-11 16:17:57</t>
+          <t>2026-03-09 15:06:03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3837,7 +3787,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.286</t>
+          <t>Mouse session - Score: 0.370</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3847,7 +3797,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MOUSE_20260311_002</t>
+          <t>MOUSE_20260309_002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3860,12 +3810,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>16:17:57</t>
+          <t>15:06:03</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3874,58 +3824,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>5293</v>
+        <v>11692</v>
       </c>
       <c r="L28" t="n">
-        <v>5293</v>
+        <v>11692</v>
       </c>
       <c r="M28" t="n">
-        <v>10091.13</v>
+        <v>32711.24</v>
       </c>
       <c r="N28" t="n">
-        <v>6054.68</v>
+        <v>19626.75</v>
       </c>
       <c r="O28" t="n">
-        <v>4036.45</v>
+        <v>13084.5</v>
       </c>
       <c r="P28" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="Q28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>104.65</v>
+        <v>99.89</v>
       </c>
       <c r="S28" t="n">
-        <v>96.43000000000001</v>
+        <v>327.48</v>
       </c>
       <c r="T28" t="n">
-        <v>13.53</v>
+        <v>14.02</v>
       </c>
       <c r="U28" t="n">
-        <v>57.86</v>
+        <v>196.49</v>
       </c>
       <c r="V28" t="n">
-        <v>38.57</v>
+        <v>130.99</v>
       </c>
       <c r="W28" t="n">
-        <v>11.3</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>29.14</v>
+        <v>12.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>104.65</v>
+        <v>99.89</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.286</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-03-12 09:39:42</t>
+          <t>2026-03-09 13:54:31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3935,7 +3885,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.438</t>
+          <t>Mouse session - Score: 0.413</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3945,7 +3895,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MOUSE_20260312_000</t>
+          <t>MOUSE_20260309_003</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3958,12 +3908,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09:39:42</t>
+          <t>13:54:31</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3972,58 +3922,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>7756</v>
+        <v>22213</v>
       </c>
       <c r="L29" t="n">
-        <v>7756</v>
+        <v>22213</v>
       </c>
       <c r="M29" t="n">
-        <v>14858.61</v>
+        <v>17030.55</v>
       </c>
       <c r="N29" t="n">
-        <v>8915.17</v>
+        <v>10218.33</v>
       </c>
       <c r="O29" t="n">
-        <v>5943.44</v>
+        <v>6812.22</v>
       </c>
       <c r="P29" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="Q29" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="R29" t="n">
-        <v>75.72</v>
+        <v>169.49</v>
       </c>
       <c r="S29" t="n">
-        <v>196.24</v>
+        <v>100.48</v>
       </c>
       <c r="T29" t="n">
-        <v>45.35</v>
+        <v>31.45</v>
       </c>
       <c r="U29" t="n">
-        <v>117.75</v>
+        <v>60.29</v>
       </c>
       <c r="V29" t="n">
-        <v>78.5</v>
+        <v>40.19</v>
       </c>
       <c r="W29" t="n">
-        <v>5.7</v>
+        <v>16.64</v>
       </c>
       <c r="X29" t="n">
-        <v>18.73</v>
+        <v>2.59</v>
       </c>
       <c r="Y29" t="n">
-        <v>75.72</v>
+        <v>169.49</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.438</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-03-12 09:46:23</t>
+          <t>2026-03-10 10:48:57</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4033,7 +3983,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.388</t>
+          <t>Mouse session - Score: 0.339</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4043,7 +3993,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MOUSE_20260312_001</t>
+          <t>MOUSE_20260310_000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4056,12 +4006,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09:46:23</t>
+          <t>10:48:57</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4070,58 +4020,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>23524</v>
+        <v>16300</v>
       </c>
       <c r="L30" t="n">
-        <v>23524</v>
+        <v>16300</v>
       </c>
       <c r="M30" t="n">
-        <v>36043.13</v>
+        <v>20779.03</v>
       </c>
       <c r="N30" t="n">
-        <v>21625.88</v>
+        <v>12467.42</v>
       </c>
       <c r="O30" t="n">
-        <v>14417.25</v>
+        <v>8311.610000000001</v>
       </c>
       <c r="P30" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="Q30" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="R30" t="n">
-        <v>128.96</v>
+        <v>131.1</v>
       </c>
       <c r="S30" t="n">
-        <v>279.49</v>
+        <v>158.49</v>
       </c>
       <c r="T30" t="n">
-        <v>13.89</v>
+        <v>44.71</v>
       </c>
       <c r="U30" t="n">
-        <v>167.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="V30" t="n">
-        <v>111.8</v>
+        <v>63.4</v>
       </c>
       <c r="W30" t="n">
-        <v>15.34</v>
+        <v>20.15</v>
       </c>
       <c r="X30" t="n">
-        <v>17.77</v>
+        <v>26.93</v>
       </c>
       <c r="Y30" t="n">
-        <v>128.96</v>
+        <v>131.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.388</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-03-12 12:41:44</t>
+          <t>2026-03-10 12:55:04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4131,7 +4081,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.387</t>
+          <t>Mouse session - Score: 0.403</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4141,7 +4091,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MOUSE_20260312_002</t>
+          <t>MOUSE_20260310_001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4154,12 +4104,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12:41:44</t>
+          <t>12:55:04</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4168,58 +4118,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>7890</v>
+        <v>21758</v>
       </c>
       <c r="L31" t="n">
-        <v>7890</v>
+        <v>21758</v>
       </c>
       <c r="M31" t="n">
-        <v>9838.23</v>
+        <v>27513.37</v>
       </c>
       <c r="N31" t="n">
-        <v>5902.94</v>
+        <v>16508.02</v>
       </c>
       <c r="O31" t="n">
-        <v>3935.29</v>
+        <v>11005.35</v>
       </c>
       <c r="P31" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R31" t="n">
-        <v>162.56</v>
+        <v>78.03</v>
       </c>
       <c r="S31" t="n">
-        <v>60.52</v>
+        <v>352.61</v>
       </c>
       <c r="T31" t="n">
-        <v>13.28</v>
+        <v>30.2</v>
       </c>
       <c r="U31" t="n">
-        <v>36.31</v>
+        <v>211.56</v>
       </c>
       <c r="V31" t="n">
-        <v>24.21</v>
+        <v>141.04</v>
       </c>
       <c r="W31" t="n">
-        <v>22.34</v>
+        <v>15.04</v>
       </c>
       <c r="X31" t="n">
-        <v>2.95</v>
+        <v>3.54</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.56</v>
+        <v>78.03</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.387</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-03-13 09:18:41</t>
+          <t>2026-03-10 14:31:36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4229,7 +4179,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.275</t>
+          <t>Mouse session - Score: 0.810</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4239,85 +4189,85 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MOUSE_20260313_000</t>
+          <t>MOUSE_20260310_002</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-03-10</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>14:31:36</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>6082</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6082</v>
+      </c>
+      <c r="M32" t="n">
+        <v>20050.75</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12030.45</v>
+      </c>
+      <c r="O32" t="n">
+        <v>8020.3</v>
+      </c>
+      <c r="P32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>09:18:41</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>8634</v>
-      </c>
-      <c r="L32" t="n">
-        <v>8634</v>
-      </c>
-      <c r="M32" t="n">
-        <v>17469.37</v>
-      </c>
-      <c r="N32" t="n">
-        <v>10481.62</v>
-      </c>
-      <c r="O32" t="n">
-        <v>6987.75</v>
-      </c>
-      <c r="P32" t="n">
-        <v>26</v>
-      </c>
       <c r="Q32" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="R32" t="n">
-        <v>163.91</v>
+        <v>81.05</v>
       </c>
       <c r="S32" t="n">
-        <v>106.58</v>
+        <v>247.39</v>
       </c>
       <c r="T32" t="n">
-        <v>9.869999999999999</v>
+        <v>43.86</v>
       </c>
       <c r="U32" t="n">
-        <v>63.95</v>
+        <v>148.44</v>
       </c>
       <c r="V32" t="n">
-        <v>42.63</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="W32" t="n">
-        <v>13.48</v>
+        <v>18.71</v>
       </c>
       <c r="X32" t="n">
-        <v>8.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>163.91</v>
+        <v>81.05</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.275</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-03-13 09:49:40</t>
+          <t>2026-03-10 12:18:05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4327,7 +4277,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.417</t>
+          <t>Mouse session - Score: 0.312</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4337,7 +4287,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MOUSE_20260313_001</t>
+          <t>MOUSE_20260310_003</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4350,12 +4300,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>09:49:40</t>
+          <t>12:18:05</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4364,58 +4314,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>27159</v>
+        <v>14480</v>
       </c>
       <c r="L33" t="n">
-        <v>27159</v>
+        <v>14480</v>
       </c>
       <c r="M33" t="n">
-        <v>21246.02</v>
+        <v>13605.17</v>
       </c>
       <c r="N33" t="n">
-        <v>12747.61</v>
+        <v>8163.1</v>
       </c>
       <c r="O33" t="n">
-        <v>8498.41</v>
+        <v>5442.07</v>
       </c>
       <c r="P33" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="R33" t="n">
-        <v>168.96</v>
+        <v>34.21</v>
       </c>
       <c r="S33" t="n">
-        <v>125.75</v>
+        <v>397.71</v>
       </c>
       <c r="T33" t="n">
-        <v>48.12</v>
+        <v>5.75</v>
       </c>
       <c r="U33" t="n">
-        <v>75.45</v>
+        <v>238.63</v>
       </c>
       <c r="V33" t="n">
-        <v>50.3</v>
+        <v>159.08</v>
       </c>
       <c r="W33" t="n">
-        <v>21.3</v>
+        <v>19.89</v>
       </c>
       <c r="X33" t="n">
-        <v>12.43</v>
+        <v>24.39</v>
       </c>
       <c r="Y33" t="n">
-        <v>168.96</v>
+        <v>34.21</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.417</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-03-13 10:51:30</t>
+          <t>2026-03-11 16:09:38</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4425,7 +4375,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.312</t>
+          <t>Mouse session - Score: 0.404</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4435,7 +4385,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MOUSE_20260313_002</t>
+          <t>MOUSE_20260311_000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4448,12 +4398,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10:51:30</t>
+          <t>16:09:38</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4462,58 +4412,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>24113</v>
+        <v>24111</v>
       </c>
       <c r="L34" t="n">
-        <v>24113</v>
+        <v>24111</v>
       </c>
       <c r="M34" t="n">
-        <v>25752.57</v>
+        <v>37960.03</v>
       </c>
       <c r="N34" t="n">
-        <v>15451.54</v>
+        <v>22776.02</v>
       </c>
       <c r="O34" t="n">
-        <v>10301.03</v>
+        <v>15184.01</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R34" t="n">
-        <v>77.03</v>
+        <v>101.84</v>
       </c>
       <c r="S34" t="n">
-        <v>334.3</v>
+        <v>372.73</v>
       </c>
       <c r="T34" t="n">
-        <v>14.29</v>
+        <v>28.97</v>
       </c>
       <c r="U34" t="n">
-        <v>200.58</v>
+        <v>223.64</v>
       </c>
       <c r="V34" t="n">
-        <v>133.72</v>
+        <v>149.09</v>
       </c>
       <c r="W34" t="n">
-        <v>10.07</v>
+        <v>6.41</v>
       </c>
       <c r="X34" t="n">
-        <v>20.91</v>
+        <v>8.35</v>
       </c>
       <c r="Y34" t="n">
-        <v>77.03</v>
+        <v>101.84</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.312</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-03-14 15:24:02</t>
+          <t>2026-03-11 11:33:52</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4523,7 +4473,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.398</t>
+          <t>Mouse session - Score: 0.325</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4533,7 +4483,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MOUSE_20260314_000</t>
+          <t>MOUSE_20260311_001</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4546,12 +4496,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>15:24:02</t>
+          <t>11:33:52</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4560,58 +4510,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>17829</v>
+        <v>23330</v>
       </c>
       <c r="L35" t="n">
-        <v>17829</v>
+        <v>23330</v>
       </c>
       <c r="M35" t="n">
-        <v>8801.84</v>
+        <v>8679.09</v>
       </c>
       <c r="N35" t="n">
-        <v>5281.11</v>
+        <v>5207.46</v>
       </c>
       <c r="O35" t="n">
-        <v>3520.74</v>
+        <v>3471.64</v>
       </c>
       <c r="P35" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q35" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R35" t="n">
-        <v>164.75</v>
+        <v>56.11</v>
       </c>
       <c r="S35" t="n">
-        <v>53.42</v>
+        <v>154.68</v>
       </c>
       <c r="T35" t="n">
-        <v>24.99</v>
+        <v>47.85</v>
       </c>
       <c r="U35" t="n">
-        <v>32.05</v>
+        <v>92.81</v>
       </c>
       <c r="V35" t="n">
-        <v>21.37</v>
+        <v>61.87</v>
       </c>
       <c r="W35" t="n">
-        <v>15.76</v>
+        <v>15.6</v>
       </c>
       <c r="X35" t="n">
-        <v>9.09</v>
+        <v>11.34</v>
       </c>
       <c r="Y35" t="n">
-        <v>164.75</v>
+        <v>56.11</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.398</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-03-14 11:34:13</t>
+          <t>2026-03-11 16:57:43</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4621,7 +4571,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.374</t>
+          <t>Mouse session - Score: 0.426</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4631,7 +4581,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MOUSE_20260314_001</t>
+          <t>MOUSE_20260311_002</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4644,12 +4594,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11:34:13</t>
+          <t>16:57:43</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4658,58 +4608,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>28998</v>
+        <v>26878</v>
       </c>
       <c r="L36" t="n">
-        <v>28998</v>
+        <v>26878</v>
       </c>
       <c r="M36" t="n">
-        <v>39394.14</v>
+        <v>30001.55</v>
       </c>
       <c r="N36" t="n">
-        <v>23636.48</v>
+        <v>18000.93</v>
       </c>
       <c r="O36" t="n">
-        <v>15757.66</v>
+        <v>12000.62</v>
       </c>
       <c r="P36" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R36" t="n">
-        <v>124.23</v>
+        <v>171.96</v>
       </c>
       <c r="S36" t="n">
-        <v>317.12</v>
+        <v>174.47</v>
       </c>
       <c r="T36" t="n">
-        <v>39.36</v>
+        <v>31.64</v>
       </c>
       <c r="U36" t="n">
-        <v>190.27</v>
+        <v>104.68</v>
       </c>
       <c r="V36" t="n">
-        <v>126.85</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="W36" t="n">
-        <v>7.41</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="X36" t="n">
-        <v>21.47</v>
+        <v>3.23</v>
       </c>
       <c r="Y36" t="n">
-        <v>124.23</v>
+        <v>171.96</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.374</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-03-14 11:03:44</t>
+          <t>2026-03-11 17:43:02</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4719,7 +4669,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.373</t>
+          <t>Mouse session - Score: 0.405</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4729,7 +4679,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MOUSE_20260314_002</t>
+          <t>MOUSE_20260311_003</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4742,12 +4692,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>11:03:44</t>
+          <t>17:43:02</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4756,58 +4706,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>29678</v>
+        <v>16890</v>
       </c>
       <c r="L37" t="n">
-        <v>29678</v>
+        <v>16890</v>
       </c>
       <c r="M37" t="n">
-        <v>18753.51</v>
+        <v>13972.68</v>
       </c>
       <c r="N37" t="n">
-        <v>11252.11</v>
+        <v>8383.610000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>7501.41</v>
+        <v>5589.07</v>
       </c>
       <c r="P37" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q37" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>100.27</v>
+        <v>96.41</v>
       </c>
       <c r="S37" t="n">
-        <v>187.03</v>
+        <v>144.93</v>
       </c>
       <c r="T37" t="n">
-        <v>25.28</v>
+        <v>6.11</v>
       </c>
       <c r="U37" t="n">
-        <v>112.22</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="V37" t="n">
-        <v>74.81</v>
+        <v>57.97</v>
       </c>
       <c r="W37" t="n">
-        <v>19.82</v>
+        <v>11.02</v>
       </c>
       <c r="X37" t="n">
-        <v>17.07</v>
+        <v>29.29</v>
       </c>
       <c r="Y37" t="n">
-        <v>100.27</v>
+        <v>96.41</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.373</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-03-16 16:31:50</t>
+          <t>2026-03-12 13:54:13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4817,7 +4767,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.442</t>
+          <t>Mouse session - Score: 0.385</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4827,7 +4777,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MOUSE_20260316_000</t>
+          <t>MOUSE_20260312_000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4840,12 +4790,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>16:31:50</t>
+          <t>13:54:13</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4854,58 +4804,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>27750</v>
+        <v>25031</v>
       </c>
       <c r="L38" t="n">
-        <v>27750</v>
+        <v>25031</v>
       </c>
       <c r="M38" t="n">
-        <v>31014.12</v>
+        <v>37453.07</v>
       </c>
       <c r="N38" t="n">
-        <v>18608.47</v>
+        <v>22471.84</v>
       </c>
       <c r="O38" t="n">
-        <v>12405.65</v>
+        <v>14981.23</v>
       </c>
       <c r="P38" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q38" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R38" t="n">
-        <v>40.18</v>
+        <v>41.78</v>
       </c>
       <c r="S38" t="n">
-        <v>771.9299999999999</v>
+        <v>896.4299999999999</v>
       </c>
       <c r="T38" t="n">
-        <v>39.95</v>
+        <v>28.81</v>
       </c>
       <c r="U38" t="n">
-        <v>463.16</v>
+        <v>537.86</v>
       </c>
       <c r="V38" t="n">
-        <v>308.77</v>
+        <v>358.57</v>
       </c>
       <c r="W38" t="n">
-        <v>23.49</v>
+        <v>3.73</v>
       </c>
       <c r="X38" t="n">
-        <v>7.59</v>
+        <v>29.56</v>
       </c>
       <c r="Y38" t="n">
-        <v>40.18</v>
+        <v>41.78</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.442</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-03-16 13:52:21</t>
+          <t>2026-03-12 16:41:08</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4915,7 +4865,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.396</t>
+          <t>Mouse session - Score: 0.419</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4925,7 +4875,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MOUSE_20260316_001</t>
+          <t>MOUSE_20260312_001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4938,12 +4888,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>13:52:21</t>
+          <t>16:41:08</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4952,58 +4902,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>17200</v>
+        <v>9751</v>
       </c>
       <c r="L39" t="n">
-        <v>17200</v>
+        <v>9751</v>
       </c>
       <c r="M39" t="n">
-        <v>22589.77</v>
+        <v>32148.31</v>
       </c>
       <c r="N39" t="n">
-        <v>13553.86</v>
+        <v>19288.99</v>
       </c>
       <c r="O39" t="n">
-        <v>9035.91</v>
+        <v>12859.33</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R39" t="n">
-        <v>140.55</v>
+        <v>116.95</v>
       </c>
       <c r="S39" t="n">
-        <v>160.72</v>
+        <v>274.88</v>
       </c>
       <c r="T39" t="n">
-        <v>10.84</v>
+        <v>47.43</v>
       </c>
       <c r="U39" t="n">
-        <v>96.43000000000001</v>
+        <v>164.93</v>
       </c>
       <c r="V39" t="n">
-        <v>64.29000000000001</v>
+        <v>109.95</v>
       </c>
       <c r="W39" t="n">
-        <v>17.29</v>
+        <v>19.78</v>
       </c>
       <c r="X39" t="n">
-        <v>28.34</v>
+        <v>17.13</v>
       </c>
       <c r="Y39" t="n">
-        <v>140.55</v>
+        <v>116.95</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.396</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-03-16 14:14:20</t>
+          <t>2026-03-12 16:31:31</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5013,7 +4963,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.258</t>
+          <t>Mouse session - Score: 0.377</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -5023,7 +4973,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MOUSE_20260316_002</t>
+          <t>MOUSE_20260312_002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5036,12 +4986,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>14:14:20</t>
+          <t>16:31:31</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5050,58 +5000,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7131</v>
+        <v>29387</v>
       </c>
       <c r="L40" t="n">
-        <v>7131</v>
+        <v>29387</v>
       </c>
       <c r="M40" t="n">
-        <v>6121.33</v>
+        <v>13157.15</v>
       </c>
       <c r="N40" t="n">
-        <v>3672.8</v>
+        <v>7894.29</v>
       </c>
       <c r="O40" t="n">
-        <v>2448.53</v>
+        <v>5262.86</v>
       </c>
       <c r="P40" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q40" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="R40" t="n">
-        <v>94.13</v>
+        <v>94.08</v>
       </c>
       <c r="S40" t="n">
-        <v>65.03</v>
+        <v>139.85</v>
       </c>
       <c r="T40" t="n">
-        <v>44.51</v>
+        <v>20.68</v>
       </c>
       <c r="U40" t="n">
-        <v>39.02</v>
+        <v>83.91</v>
       </c>
       <c r="V40" t="n">
-        <v>26.01</v>
+        <v>55.94</v>
       </c>
       <c r="W40" t="n">
-        <v>6.76</v>
+        <v>28.61</v>
       </c>
       <c r="X40" t="n">
-        <v>13.74</v>
+        <v>12.01</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.13</v>
+        <v>94.08</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.258</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-03-17 16:01:49</t>
+          <t>2026-03-12 09:09:15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5111,7 +5061,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.426</t>
+          <t>Mouse session - Score: 0.444</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -5121,7 +5071,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MOUSE_20260317_000</t>
+          <t>MOUSE_20260312_003</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5134,12 +5084,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>16:01:49</t>
+          <t>09:09:15</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5148,58 +5098,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>29531</v>
+        <v>14109</v>
       </c>
       <c r="L41" t="n">
-        <v>29531</v>
+        <v>14109</v>
       </c>
       <c r="M41" t="n">
-        <v>10043.72</v>
+        <v>30468.5</v>
       </c>
       <c r="N41" t="n">
-        <v>6026.23</v>
+        <v>18281.1</v>
       </c>
       <c r="O41" t="n">
-        <v>4017.49</v>
+        <v>12187.4</v>
       </c>
       <c r="P41" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="Q41" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R41" t="n">
-        <v>55.09</v>
+        <v>145.3</v>
       </c>
       <c r="S41" t="n">
-        <v>182.31</v>
+        <v>209.69</v>
       </c>
       <c r="T41" t="n">
-        <v>6.69</v>
+        <v>43.57</v>
       </c>
       <c r="U41" t="n">
-        <v>109.39</v>
+        <v>125.82</v>
       </c>
       <c r="V41" t="n">
-        <v>72.92</v>
+        <v>83.88</v>
       </c>
       <c r="W41" t="n">
-        <v>4.16</v>
+        <v>16.95</v>
       </c>
       <c r="X41" t="n">
-        <v>28.36</v>
+        <v>16.55</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.09</v>
+        <v>145.3</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.426</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-03-17 15:44:18</t>
+          <t>2026-03-13 12:34:09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5209,7 +5159,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.349</t>
+          <t>Mouse session - Score: 0.393</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -5219,7 +5169,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20260317_001</t>
+          <t>MOUSE_20260313_000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5232,12 +5182,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>15:44:18</t>
+          <t>12:34:09</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5246,58 +5196,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>16303</v>
+        <v>14403</v>
       </c>
       <c r="L42" t="n">
-        <v>16303</v>
+        <v>14403</v>
       </c>
       <c r="M42" t="n">
-        <v>18809.95</v>
+        <v>37479.53</v>
       </c>
       <c r="N42" t="n">
-        <v>11285.97</v>
+        <v>22487.72</v>
       </c>
       <c r="O42" t="n">
-        <v>7523.98</v>
+        <v>14991.81</v>
       </c>
       <c r="P42" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R42" t="n">
-        <v>50.28</v>
+        <v>152.9</v>
       </c>
       <c r="S42" t="n">
-        <v>374.13</v>
+        <v>245.13</v>
       </c>
       <c r="T42" t="n">
-        <v>28.37</v>
+        <v>11.78</v>
       </c>
       <c r="U42" t="n">
-        <v>224.48</v>
+        <v>147.08</v>
       </c>
       <c r="V42" t="n">
-        <v>149.65</v>
+        <v>98.05</v>
       </c>
       <c r="W42" t="n">
-        <v>4.59</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X42" t="n">
-        <v>3.31</v>
+        <v>14.23</v>
       </c>
       <c r="Y42" t="n">
-        <v>50.28</v>
+        <v>152.9</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.349</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-03-17 13:19:29</t>
+          <t>2026-03-13 12:38:51</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5307,7 +5257,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.432</t>
+          <t>Mouse session - Score: 0.308</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -5317,7 +5267,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20260317_002</t>
+          <t>MOUSE_20260313_001</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5330,12 +5280,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>13:19:29</t>
+          <t>12:38:51</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5344,58 +5294,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>6691</v>
+        <v>10833</v>
       </c>
       <c r="L43" t="n">
-        <v>6691</v>
+        <v>10833</v>
       </c>
       <c r="M43" t="n">
-        <v>19990.69</v>
+        <v>26461.89</v>
       </c>
       <c r="N43" t="n">
-        <v>11994.42</v>
+        <v>15877.13</v>
       </c>
       <c r="O43" t="n">
-        <v>7996.28</v>
+        <v>10584.75</v>
       </c>
       <c r="P43" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R43" t="n">
-        <v>60.54</v>
+        <v>154.3</v>
       </c>
       <c r="S43" t="n">
-        <v>330.2</v>
+        <v>171.5</v>
       </c>
       <c r="T43" t="n">
-        <v>13.08</v>
+        <v>35.4</v>
       </c>
       <c r="U43" t="n">
-        <v>198.12</v>
+        <v>102.9</v>
       </c>
       <c r="V43" t="n">
-        <v>132.08</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="W43" t="n">
-        <v>23.08</v>
+        <v>2.9</v>
       </c>
       <c r="X43" t="n">
-        <v>12.73</v>
+        <v>9.74</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.54</v>
+        <v>154.3</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.432</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-03-18 15:00:22</t>
+          <t>2026-03-13 11:45:13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5405,7 +5355,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.412</t>
+          <t>Mouse session - Score: 0.337</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5415,7 +5365,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20260318_000</t>
+          <t>MOUSE_20260313_002</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5428,12 +5378,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>15:00:22</t>
+          <t>11:45:13</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5442,58 +5392,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>26673</v>
+        <v>21131</v>
       </c>
       <c r="L44" t="n">
-        <v>26673</v>
+        <v>21131</v>
       </c>
       <c r="M44" t="n">
-        <v>9408.370000000001</v>
+        <v>22198.27</v>
       </c>
       <c r="N44" t="n">
-        <v>5645.02</v>
+        <v>13318.96</v>
       </c>
       <c r="O44" t="n">
-        <v>3763.35</v>
+        <v>8879.309999999999</v>
       </c>
       <c r="P44" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R44" t="n">
-        <v>30.01</v>
+        <v>169.44</v>
       </c>
       <c r="S44" t="n">
-        <v>313.47</v>
+        <v>131.01</v>
       </c>
       <c r="T44" t="n">
-        <v>49.78</v>
+        <v>19.56</v>
       </c>
       <c r="U44" t="n">
-        <v>188.08</v>
+        <v>78.61</v>
       </c>
       <c r="V44" t="n">
-        <v>125.39</v>
+        <v>52.41</v>
       </c>
       <c r="W44" t="n">
-        <v>13.68</v>
+        <v>22.39</v>
       </c>
       <c r="X44" t="n">
-        <v>2.01</v>
+        <v>18</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.01</v>
+        <v>169.44</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.412</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-03-18 13:40:01</t>
+          <t>2026-03-13 13:53:54</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5503,7 +5453,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.432</t>
+          <t>Mouse session - Score: 0.421</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5513,7 +5463,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20260318_001</t>
+          <t>MOUSE_20260313_003</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5526,12 +5476,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>13:40:01</t>
+          <t>13:53:54</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5540,58 +5490,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>20834</v>
+        <v>15175</v>
       </c>
       <c r="L45" t="n">
-        <v>20834</v>
+        <v>15175</v>
       </c>
       <c r="M45" t="n">
-        <v>29654.84</v>
+        <v>38892.41</v>
       </c>
       <c r="N45" t="n">
-        <v>17792.9</v>
+        <v>23335.45</v>
       </c>
       <c r="O45" t="n">
-        <v>11861.94</v>
+        <v>15556.97</v>
       </c>
       <c r="P45" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R45" t="n">
-        <v>84.08</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="S45" t="n">
-        <v>352.69</v>
+        <v>442.88</v>
       </c>
       <c r="T45" t="n">
-        <v>29.45</v>
+        <v>21.2</v>
       </c>
       <c r="U45" t="n">
-        <v>211.61</v>
+        <v>265.73</v>
       </c>
       <c r="V45" t="n">
-        <v>141.08</v>
+        <v>177.15</v>
       </c>
       <c r="W45" t="n">
-        <v>12.4</v>
+        <v>11.42</v>
       </c>
       <c r="X45" t="n">
-        <v>6.75</v>
+        <v>12.01</v>
       </c>
       <c r="Y45" t="n">
-        <v>84.08</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.432</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-03-18 13:34:59</t>
+          <t>2026-03-16 13:48:42</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5601,7 +5551,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.311</t>
+          <t>Mouse session - Score: 0.333</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5611,7 +5561,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20260318_002</t>
+          <t>MOUSE_20260316_000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5624,12 +5574,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>13:34:59</t>
+          <t>13:48:42</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5638,58 +5588,58 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>14242</v>
+        <v>16942</v>
       </c>
       <c r="L46" t="n">
-        <v>14242</v>
+        <v>16942</v>
       </c>
       <c r="M46" t="n">
-        <v>11042.8</v>
+        <v>10098.99</v>
       </c>
       <c r="N46" t="n">
-        <v>6625.68</v>
+        <v>6059.4</v>
       </c>
       <c r="O46" t="n">
-        <v>4417.12</v>
+        <v>4039.6</v>
       </c>
       <c r="P46" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="Q46" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>56.49</v>
+        <v>104.82</v>
       </c>
       <c r="S46" t="n">
-        <v>195.47</v>
+        <v>96.34</v>
       </c>
       <c r="T46" t="n">
-        <v>39.05</v>
+        <v>20.52</v>
       </c>
       <c r="U46" t="n">
-        <v>117.28</v>
+        <v>57.81</v>
       </c>
       <c r="V46" t="n">
-        <v>78.19</v>
+        <v>38.54</v>
       </c>
       <c r="W46" t="n">
-        <v>6.23</v>
+        <v>6.71</v>
       </c>
       <c r="X46" t="n">
-        <v>28.76</v>
+        <v>22.47</v>
       </c>
       <c r="Y46" t="n">
-        <v>56.49</v>
+        <v>104.82</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.311</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-03-19 15:25:43</t>
+          <t>2026-03-16 09:35:39</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5699,7 +5649,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.439</t>
+          <t>Mouse session - Score: 0.306</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5709,7 +5659,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MOUSE_20260319_000</t>
+          <t>MOUSE_20260316_001</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5722,12 +5672,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>15:25:43</t>
+          <t>09:35:39</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5736,58 +5686,58 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>28654</v>
+        <v>27723</v>
       </c>
       <c r="L47" t="n">
-        <v>28654</v>
+        <v>27723</v>
       </c>
       <c r="M47" t="n">
-        <v>25708.97</v>
+        <v>5603.78</v>
       </c>
       <c r="N47" t="n">
-        <v>15425.38</v>
+        <v>3362.27</v>
       </c>
       <c r="O47" t="n">
-        <v>10283.59</v>
+        <v>2241.51</v>
       </c>
       <c r="P47" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>64.44</v>
+        <v>109.44</v>
       </c>
       <c r="S47" t="n">
-        <v>398.95</v>
+        <v>51.2</v>
       </c>
       <c r="T47" t="n">
-        <v>5.42</v>
+        <v>41.46</v>
       </c>
       <c r="U47" t="n">
-        <v>239.37</v>
+        <v>30.72</v>
       </c>
       <c r="V47" t="n">
-        <v>159.58</v>
+        <v>20.48</v>
       </c>
       <c r="W47" t="n">
-        <v>11.67</v>
+        <v>6.57</v>
       </c>
       <c r="X47" t="n">
-        <v>5.89</v>
+        <v>7.37</v>
       </c>
       <c r="Y47" t="n">
-        <v>64.44</v>
+        <v>109.44</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.439</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-03-19 15:31:53</t>
+          <t>2026-03-16 13:54:47</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5797,7 +5747,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.417</t>
+          <t>Mouse session - Score: 0.261</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5807,7 +5757,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MOUSE_20260319_001</t>
+          <t>MOUSE_20260316_002</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5820,12 +5770,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>15:31:53</t>
+          <t>13:54:47</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5834,58 +5784,58 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>5659</v>
+        <v>26113</v>
       </c>
       <c r="L48" t="n">
-        <v>5659</v>
+        <v>26113</v>
       </c>
       <c r="M48" t="n">
-        <v>5675.03</v>
+        <v>21453.43</v>
       </c>
       <c r="N48" t="n">
-        <v>3405.02</v>
+        <v>12872.06</v>
       </c>
       <c r="O48" t="n">
-        <v>2270.01</v>
+        <v>8581.370000000001</v>
       </c>
       <c r="P48" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="Q48" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>143.24</v>
+        <v>178.15</v>
       </c>
       <c r="S48" t="n">
-        <v>39.62</v>
+        <v>120.42</v>
       </c>
       <c r="T48" t="n">
-        <v>33.37</v>
+        <v>21.14</v>
       </c>
       <c r="U48" t="n">
-        <v>23.77</v>
+        <v>72.25</v>
       </c>
       <c r="V48" t="n">
-        <v>15.85</v>
+        <v>48.17</v>
       </c>
       <c r="W48" t="n">
-        <v>6.59</v>
+        <v>18.48</v>
       </c>
       <c r="X48" t="n">
-        <v>19.26</v>
+        <v>11.98</v>
       </c>
       <c r="Y48" t="n">
-        <v>143.24</v>
+        <v>178.15</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.417</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-03-19 16:14:14</t>
+          <t>2026-03-16 10:33:33</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5895,7 +5845,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.315</t>
+          <t>Mouse session - Score: 0.326</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5905,7 +5855,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MOUSE_20260319_002</t>
+          <t>MOUSE_20260316_003</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5918,12 +5868,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>16:14:14</t>
+          <t>10:33:33</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5932,58 +5882,58 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>14101</v>
+        <v>15431</v>
       </c>
       <c r="L49" t="n">
-        <v>14101</v>
+        <v>15431</v>
       </c>
       <c r="M49" t="n">
-        <v>30038.92</v>
+        <v>7959.2</v>
       </c>
       <c r="N49" t="n">
-        <v>18023.35</v>
+        <v>4775.52</v>
       </c>
       <c r="O49" t="n">
-        <v>12015.57</v>
+        <v>3183.68</v>
       </c>
       <c r="P49" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q49" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="R49" t="n">
-        <v>118.78</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="S49" t="n">
-        <v>252.89</v>
+        <v>85.95</v>
       </c>
       <c r="T49" t="n">
-        <v>31.78</v>
+        <v>15.63</v>
       </c>
       <c r="U49" t="n">
-        <v>151.73</v>
+        <v>51.57</v>
       </c>
       <c r="V49" t="n">
-        <v>101.16</v>
+        <v>34.38</v>
       </c>
       <c r="W49" t="n">
-        <v>5.66</v>
+        <v>13.75</v>
       </c>
       <c r="X49" t="n">
-        <v>19.3</v>
+        <v>18.44</v>
       </c>
       <c r="Y49" t="n">
-        <v>118.78</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.315</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-03-20 10:28:55</t>
+          <t>2026-03-17 13:01:23</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5993,7 +5943,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.332</t>
+          <t>Mouse session - Score: 0.812</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -6003,25 +5953,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MOUSE_20260320_000</t>
+          <t>MOUSE_20260317_000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10:28:55</t>
+          <t>13:01:23</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6030,58 +5980,58 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>18510</v>
+        <v>23132</v>
       </c>
       <c r="L50" t="n">
-        <v>18510</v>
+        <v>23132</v>
       </c>
       <c r="M50" t="n">
-        <v>28029.37</v>
+        <v>20229.79</v>
       </c>
       <c r="N50" t="n">
-        <v>16817.62</v>
+        <v>12137.87</v>
       </c>
       <c r="O50" t="n">
-        <v>11211.75</v>
+        <v>8091.92</v>
       </c>
       <c r="P50" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Q50" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>158.55</v>
+        <v>125.38</v>
       </c>
       <c r="S50" t="n">
-        <v>176.79</v>
+        <v>161.34</v>
       </c>
       <c r="T50" t="n">
-        <v>44.68</v>
+        <v>17.21</v>
       </c>
       <c r="U50" t="n">
-        <v>106.07</v>
+        <v>96.81</v>
       </c>
       <c r="V50" t="n">
-        <v>70.70999999999999</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="W50" t="n">
-        <v>10.47</v>
+        <v>9.52</v>
       </c>
       <c r="X50" t="n">
-        <v>15.32</v>
+        <v>17.47</v>
       </c>
       <c r="Y50" t="n">
-        <v>158.55</v>
+        <v>125.38</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.332</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-03-20 16:19:52</t>
+          <t>2026-03-17 15:32:44</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6091,7 +6041,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.264</t>
+          <t>Mouse session - Score: 0.285</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6101,7 +6051,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MOUSE_20260320_001</t>
+          <t>MOUSE_20260317_001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6114,12 +6064,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>16:19:52</t>
+          <t>15:32:44</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6128,58 +6078,58 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>10615</v>
+        <v>10021</v>
       </c>
       <c r="L51" t="n">
-        <v>10615</v>
+        <v>10021</v>
       </c>
       <c r="M51" t="n">
-        <v>32081.6</v>
+        <v>35815.91</v>
       </c>
       <c r="N51" t="n">
-        <v>19248.96</v>
+        <v>21489.54</v>
       </c>
       <c r="O51" t="n">
-        <v>12832.64</v>
+        <v>14326.36</v>
       </c>
       <c r="P51" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Q51" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>179.95</v>
+        <v>106.3</v>
       </c>
       <c r="S51" t="n">
-        <v>178.28</v>
+        <v>336.95</v>
       </c>
       <c r="T51" t="n">
-        <v>10.29</v>
+        <v>48.69</v>
       </c>
       <c r="U51" t="n">
-        <v>106.97</v>
+        <v>202.17</v>
       </c>
       <c r="V51" t="n">
-        <v>71.31</v>
+        <v>134.78</v>
       </c>
       <c r="W51" t="n">
-        <v>8.949999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="X51" t="n">
-        <v>27.28</v>
+        <v>6.43</v>
       </c>
       <c r="Y51" t="n">
-        <v>179.95</v>
+        <v>106.3</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.264</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-03-20 16:21:20</t>
+          <t>2026-03-17 13:29:41</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6189,7 +6139,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.433</t>
+          <t>Mouse session - Score: 0.283</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -6199,7 +6149,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MOUSE_20260320_002</t>
+          <t>MOUSE_20260317_002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6212,12 +6162,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>16:21:20</t>
+          <t>13:29:41</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -6226,58 +6176,58 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>19413</v>
+        <v>25907</v>
       </c>
       <c r="L52" t="n">
-        <v>19413</v>
+        <v>25907</v>
       </c>
       <c r="M52" t="n">
-        <v>19878.02</v>
+        <v>19686.47</v>
       </c>
       <c r="N52" t="n">
-        <v>11926.81</v>
+        <v>11811.88</v>
       </c>
       <c r="O52" t="n">
-        <v>7951.21</v>
+        <v>7874.59</v>
       </c>
       <c r="P52" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="Q52" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="R52" t="n">
-        <v>166.81</v>
+        <v>126.25</v>
       </c>
       <c r="S52" t="n">
-        <v>119.16</v>
+        <v>155.93</v>
       </c>
       <c r="T52" t="n">
-        <v>25.18</v>
+        <v>15.38</v>
       </c>
       <c r="U52" t="n">
-        <v>71.5</v>
+        <v>93.56</v>
       </c>
       <c r="V52" t="n">
-        <v>47.67</v>
+        <v>62.37</v>
       </c>
       <c r="W52" t="n">
-        <v>26.12</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="X52" t="n">
-        <v>23.5</v>
+        <v>10.65</v>
       </c>
       <c r="Y52" t="n">
-        <v>166.81</v>
+        <v>126.25</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.433</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-03-23 17:53:39</t>
+          <t>2026-03-17 09:36:21</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6287,7 +6237,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.343</t>
+          <t>Mouse session - Score: 0.310</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -6297,7 +6247,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MOUSE_20260323_000</t>
+          <t>MOUSE_20260317_003</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6310,12 +6260,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>17:53:39</t>
+          <t>09:36:21</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6324,58 +6274,58 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>6893</v>
+        <v>15696</v>
       </c>
       <c r="L53" t="n">
-        <v>6893</v>
+        <v>15696</v>
       </c>
       <c r="M53" t="n">
-        <v>8369.59</v>
+        <v>35220.23</v>
       </c>
       <c r="N53" t="n">
-        <v>5021.76</v>
+        <v>21132.14</v>
       </c>
       <c r="O53" t="n">
-        <v>3347.84</v>
+        <v>14088.09</v>
       </c>
       <c r="P53" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R53" t="n">
-        <v>160.42</v>
+        <v>160.81</v>
       </c>
       <c r="S53" t="n">
-        <v>52.17</v>
+        <v>219.02</v>
       </c>
       <c r="T53" t="n">
-        <v>46.83</v>
+        <v>26.31</v>
       </c>
       <c r="U53" t="n">
-        <v>31.3</v>
+        <v>131.41</v>
       </c>
       <c r="V53" t="n">
-        <v>20.87</v>
+        <v>87.61</v>
       </c>
       <c r="W53" t="n">
-        <v>2.44</v>
+        <v>18.26</v>
       </c>
       <c r="X53" t="n">
-        <v>6.11</v>
+        <v>24.12</v>
       </c>
       <c r="Y53" t="n">
-        <v>160.42</v>
+        <v>160.81</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.343</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-03-23 10:30:01</t>
+          <t>2026-03-18 14:45:30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6385,7 +6335,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.909</t>
+          <t>Mouse session - Score: 0.304</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -6395,25 +6345,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MOUSE_20260323_001</t>
+          <t>MOUSE_20260318_000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10:30:01</t>
+          <t>14:45:30</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6422,58 +6372,58 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>13624</v>
+        <v>19985</v>
       </c>
       <c r="L54" t="n">
-        <v>13624</v>
+        <v>19985</v>
       </c>
       <c r="M54" t="n">
-        <v>32662.39</v>
+        <v>6889.56</v>
       </c>
       <c r="N54" t="n">
-        <v>19597.44</v>
+        <v>4133.74</v>
       </c>
       <c r="O54" t="n">
-        <v>13064.96</v>
+        <v>2755.83</v>
       </c>
       <c r="P54" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q54" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="R54" t="n">
-        <v>176.47</v>
+        <v>116.14</v>
       </c>
       <c r="S54" t="n">
-        <v>185.09</v>
+        <v>59.32</v>
       </c>
       <c r="T54" t="n">
-        <v>40.92</v>
+        <v>5.36</v>
       </c>
       <c r="U54" t="n">
-        <v>111.05</v>
+        <v>35.59</v>
       </c>
       <c r="V54" t="n">
-        <v>74.04000000000001</v>
+        <v>23.73</v>
       </c>
       <c r="W54" t="n">
-        <v>21.41</v>
+        <v>7.09</v>
       </c>
       <c r="X54" t="n">
-        <v>23.72</v>
+        <v>20.04</v>
       </c>
       <c r="Y54" t="n">
-        <v>176.47</v>
+        <v>116.14</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.909</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-03-23 09:56:23</t>
+          <t>2026-03-18 12:41:03</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6483,7 +6433,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.282</t>
+          <t>Mouse session - Score: 0.369</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6493,7 +6443,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MOUSE_20260323_002</t>
+          <t>MOUSE_20260318_001</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6506,66 +6456,1830 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
+          <t>2026-03-18</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>12:41:03</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>28456</v>
+      </c>
+      <c r="L55" t="n">
+        <v>28456</v>
+      </c>
+      <c r="M55" t="n">
+        <v>13628.62</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8177.17</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5451.45</v>
+      </c>
+      <c r="P55" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>14</v>
+      </c>
+      <c r="R55" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="S55" t="n">
+        <v>216.64</v>
+      </c>
+      <c r="T55" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="U55" t="n">
+        <v>129.99</v>
+      </c>
+      <c r="V55" t="n">
+        <v>86.66</v>
+      </c>
+      <c r="W55" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>62.91</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-03-18 11:56:50</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.348</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MOUSE_20260318_002</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2026-03-18</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>11:56:50</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>5770</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5770</v>
+      </c>
+      <c r="M56" t="n">
+        <v>8077.26</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4846.35</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3230.9</v>
+      </c>
+      <c r="P56" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>12</v>
+      </c>
+      <c r="R56" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="S56" t="n">
+        <v>207.89</v>
+      </c>
+      <c r="T56" t="n">
+        <v>48.58</v>
+      </c>
+      <c r="U56" t="n">
+        <v>124.73</v>
+      </c>
+      <c r="V56" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="W56" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="X56" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.348</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-03-18 09:23:37</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.403</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MOUSE_20260318_003</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2026-03-18</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>09:23:37</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>25814</v>
+      </c>
+      <c r="L57" t="n">
+        <v>25814</v>
+      </c>
+      <c r="M57" t="n">
+        <v>14136.92</v>
+      </c>
+      <c r="N57" t="n">
+        <v>8482.15</v>
+      </c>
+      <c r="O57" t="n">
+        <v>5654.77</v>
+      </c>
+      <c r="P57" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>142.51</v>
+      </c>
+      <c r="S57" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="T57" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="U57" t="n">
+        <v>59.52</v>
+      </c>
+      <c r="V57" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="W57" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="X57" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>142.51</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-03-19 12:43:23</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.378</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MOUSE_20260319_000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>12:43:23</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>14478</v>
+      </c>
+      <c r="L58" t="n">
+        <v>14478</v>
+      </c>
+      <c r="M58" t="n">
+        <v>28650.33</v>
+      </c>
+      <c r="N58" t="n">
+        <v>17190.2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>11460.13</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>9</v>
+      </c>
+      <c r="R58" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="S58" t="n">
+        <v>355.59</v>
+      </c>
+      <c r="T58" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="U58" t="n">
+        <v>213.35</v>
+      </c>
+      <c r="V58" t="n">
+        <v>142.24</v>
+      </c>
+      <c r="W58" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="X58" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-03-19 10:44:59</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.312</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MOUSE_20260319_001</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>10:44:59</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>13351</v>
+      </c>
+      <c r="L59" t="n">
+        <v>13351</v>
+      </c>
+      <c r="M59" t="n">
+        <v>38343.75</v>
+      </c>
+      <c r="N59" t="n">
+        <v>23006.25</v>
+      </c>
+      <c r="O59" t="n">
+        <v>15337.5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>24</v>
+      </c>
+      <c r="R59" t="n">
+        <v>152.13</v>
+      </c>
+      <c r="S59" t="n">
+        <v>252.05</v>
+      </c>
+      <c r="T59" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="U59" t="n">
+        <v>151.23</v>
+      </c>
+      <c r="V59" t="n">
+        <v>100.82</v>
+      </c>
+      <c r="W59" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="X59" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>152.13</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-03-19 17:49:26</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.405</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MOUSE_20260319_002</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>17:49:26</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>17193</v>
+      </c>
+      <c r="L60" t="n">
+        <v>17193</v>
+      </c>
+      <c r="M60" t="n">
+        <v>9806.52</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5883.91</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3922.61</v>
+      </c>
+      <c r="P60" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>18</v>
+      </c>
+      <c r="R60" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="S60" t="n">
+        <v>96.86</v>
+      </c>
+      <c r="T60" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U60" t="n">
+        <v>58.12</v>
+      </c>
+      <c r="V60" t="n">
+        <v>38.74</v>
+      </c>
+      <c r="W60" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="X60" t="n">
+        <v>29.74</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>101.24</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-03-19 17:17:11</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.258</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MOUSE_20260319_003</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>17:17:11</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>17775</v>
+      </c>
+      <c r="L61" t="n">
+        <v>17775</v>
+      </c>
+      <c r="M61" t="n">
+        <v>27423.32</v>
+      </c>
+      <c r="N61" t="n">
+        <v>16453.99</v>
+      </c>
+      <c r="O61" t="n">
+        <v>10969.33</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>21</v>
+      </c>
+      <c r="R61" t="n">
+        <v>165.66</v>
+      </c>
+      <c r="S61" t="n">
+        <v>165.54</v>
+      </c>
+      <c r="T61" t="n">
+        <v>37.46</v>
+      </c>
+      <c r="U61" t="n">
+        <v>99.31999999999999</v>
+      </c>
+      <c r="V61" t="n">
+        <v>66.22</v>
+      </c>
+      <c r="W61" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="X61" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>165.66</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.258</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-03-20 11:38:46</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.389</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MOUSE_20260320_000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>11:38:46</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>19189</v>
+      </c>
+      <c r="L62" t="n">
+        <v>19189</v>
+      </c>
+      <c r="M62" t="n">
+        <v>37398.06</v>
+      </c>
+      <c r="N62" t="n">
+        <v>22438.84</v>
+      </c>
+      <c r="O62" t="n">
+        <v>14959.22</v>
+      </c>
+      <c r="P62" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>28</v>
+      </c>
+      <c r="R62" t="n">
+        <v>132.45</v>
+      </c>
+      <c r="S62" t="n">
+        <v>282.37</v>
+      </c>
+      <c r="T62" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="U62" t="n">
+        <v>169.42</v>
+      </c>
+      <c r="V62" t="n">
+        <v>112.95</v>
+      </c>
+      <c r="W62" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="X62" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>132.45</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.389</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-03-20 13:57:30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.386</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MOUSE_20260320_001</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>13:57:30</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>8915</v>
+      </c>
+      <c r="L63" t="n">
+        <v>8915</v>
+      </c>
+      <c r="M63" t="n">
+        <v>12194.25</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7316.55</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4877.7</v>
+      </c>
+      <c r="P63" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>23</v>
+      </c>
+      <c r="R63" t="n">
+        <v>176.36</v>
+      </c>
+      <c r="S63" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="T63" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U63" t="n">
+        <v>41.49</v>
+      </c>
+      <c r="V63" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="W63" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="X63" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>176.36</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-03-20 16:46:41</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.385</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MOUSE_20260320_002</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>16:46:41</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>8688</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8688</v>
+      </c>
+      <c r="M64" t="n">
+        <v>15396.26</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9237.76</v>
+      </c>
+      <c r="O64" t="n">
+        <v>6158.5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>28</v>
+      </c>
+      <c r="R64" t="n">
+        <v>106.45</v>
+      </c>
+      <c r="S64" t="n">
+        <v>144.63</v>
+      </c>
+      <c r="T64" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="U64" t="n">
+        <v>86.78</v>
+      </c>
+      <c r="V64" t="n">
+        <v>57.85</v>
+      </c>
+      <c r="W64" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="X64" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>106.45</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-03-20 09:50:44</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.930</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MOUSE_20260320_003</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>09:50:44</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>13190</v>
+      </c>
+      <c r="L65" t="n">
+        <v>13190</v>
+      </c>
+      <c r="M65" t="n">
+        <v>18694.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>11216.7</v>
+      </c>
+      <c r="O65" t="n">
+        <v>7477.8</v>
+      </c>
+      <c r="P65" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>26</v>
+      </c>
+      <c r="R65" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="S65" t="n">
+        <v>470.26</v>
+      </c>
+      <c r="T65" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="U65" t="n">
+        <v>282.16</v>
+      </c>
+      <c r="V65" t="n">
+        <v>188.11</v>
+      </c>
+      <c r="W65" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="X65" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-03-22 16:56:28</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.440</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MOUSE_20260322_000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2026-03-22</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>16:56:28</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>20414</v>
+      </c>
+      <c r="L66" t="n">
+        <v>20414</v>
+      </c>
+      <c r="M66" t="n">
+        <v>29907.54</v>
+      </c>
+      <c r="N66" t="n">
+        <v>17944.52</v>
+      </c>
+      <c r="O66" t="n">
+        <v>11963.02</v>
+      </c>
+      <c r="P66" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>20</v>
+      </c>
+      <c r="R66" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="S66" t="n">
+        <v>941.22</v>
+      </c>
+      <c r="T66" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="U66" t="n">
+        <v>564.73</v>
+      </c>
+      <c r="V66" t="n">
+        <v>376.49</v>
+      </c>
+      <c r="W66" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="X66" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-03-22 16:52:46</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.374</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MOUSE_20260322_001</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2026-03-22</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>16:52:46</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>27249</v>
+      </c>
+      <c r="L67" t="n">
+        <v>27249</v>
+      </c>
+      <c r="M67" t="n">
+        <v>22250.97</v>
+      </c>
+      <c r="N67" t="n">
+        <v>13350.58</v>
+      </c>
+      <c r="O67" t="n">
+        <v>8900.389999999999</v>
+      </c>
+      <c r="P67" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>93.84999999999999</v>
+      </c>
+      <c r="S67" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="U67" t="n">
+        <v>142.26</v>
+      </c>
+      <c r="V67" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="W67" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="X67" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>93.84999999999999</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-03-22 13:38:51</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.298</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MOUSE_20260322_002</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2026-03-22</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>13:38:51</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>21755</v>
+      </c>
+      <c r="L68" t="n">
+        <v>21755</v>
+      </c>
+      <c r="M68" t="n">
+        <v>8092.99</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4855.79</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3237.19</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>174.06</v>
+      </c>
+      <c r="S68" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="T68" t="n">
+        <v>38.54</v>
+      </c>
+      <c r="U68" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="V68" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="W68" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="X68" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>174.06</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-03-22 16:59:25</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.398</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MOUSE_20260322_003</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2026-03-22</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>16:59:25</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>29119</v>
+      </c>
+      <c r="L69" t="n">
+        <v>29119</v>
+      </c>
+      <c r="M69" t="n">
+        <v>20987.49</v>
+      </c>
+      <c r="N69" t="n">
+        <v>12592.5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>8395</v>
+      </c>
+      <c r="P69" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>11</v>
+      </c>
+      <c r="R69" t="n">
+        <v>159.45</v>
+      </c>
+      <c r="S69" t="n">
+        <v>131.63</v>
+      </c>
+      <c r="T69" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="U69" t="n">
+        <v>78.98</v>
+      </c>
+      <c r="V69" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="W69" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="X69" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>159.45</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-03-23 16:35:21</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.327</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MOUSE_20260323_000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>2026-03-23</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>09:56:23</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>16:35:21</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>Mouse</t>
         </is>
       </c>
-      <c r="K55" t="n">
-        <v>24539</v>
-      </c>
-      <c r="L55" t="n">
-        <v>24539</v>
-      </c>
-      <c r="M55" t="n">
-        <v>18301.07</v>
-      </c>
-      <c r="N55" t="n">
-        <v>10980.64</v>
-      </c>
-      <c r="O55" t="n">
-        <v>7320.43</v>
-      </c>
-      <c r="P55" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>17</v>
-      </c>
-      <c r="R55" t="n">
-        <v>56.66</v>
-      </c>
-      <c r="S55" t="n">
-        <v>322.99</v>
-      </c>
-      <c r="T55" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="U55" t="n">
-        <v>193.79</v>
-      </c>
-      <c r="V55" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="W55" t="n">
-        <v>25.67</v>
-      </c>
-      <c r="X55" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>56.66</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0.282</v>
+      <c r="K70" t="n">
+        <v>19888</v>
+      </c>
+      <c r="L70" t="n">
+        <v>19888</v>
+      </c>
+      <c r="M70" t="n">
+        <v>21444.63</v>
+      </c>
+      <c r="N70" t="n">
+        <v>12866.78</v>
+      </c>
+      <c r="O70" t="n">
+        <v>8577.85</v>
+      </c>
+      <c r="P70" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>26</v>
+      </c>
+      <c r="R70" t="n">
+        <v>118.01</v>
+      </c>
+      <c r="S70" t="n">
+        <v>181.71</v>
+      </c>
+      <c r="T70" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="U70" t="n">
+        <v>109.03</v>
+      </c>
+      <c r="V70" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="W70" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="X70" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>118.01</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-03-23 09:14:52</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.428</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MOUSE_20260323_001</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2026-03-23</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>09:14:52</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>12416</v>
+      </c>
+      <c r="L71" t="n">
+        <v>12416</v>
+      </c>
+      <c r="M71" t="n">
+        <v>23109.69</v>
+      </c>
+      <c r="N71" t="n">
+        <v>13865.81</v>
+      </c>
+      <c r="O71" t="n">
+        <v>9243.879999999999</v>
+      </c>
+      <c r="P71" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>11</v>
+      </c>
+      <c r="R71" t="n">
+        <v>136.03</v>
+      </c>
+      <c r="S71" t="n">
+        <v>169.89</v>
+      </c>
+      <c r="T71" t="n">
+        <v>48.92</v>
+      </c>
+      <c r="U71" t="n">
+        <v>101.93</v>
+      </c>
+      <c r="V71" t="n">
+        <v>67.95999999999999</v>
+      </c>
+      <c r="W71" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="X71" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>136.03</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-03-23 17:04:36</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.878</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MOUSE_20260323_002</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2026-03-23</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>17:04:36</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>17392</v>
+      </c>
+      <c r="L72" t="n">
+        <v>17392</v>
+      </c>
+      <c r="M72" t="n">
+        <v>30567.45</v>
+      </c>
+      <c r="N72" t="n">
+        <v>18340.47</v>
+      </c>
+      <c r="O72" t="n">
+        <v>12226.98</v>
+      </c>
+      <c r="P72" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="S72" t="n">
+        <v>938.76</v>
+      </c>
+      <c r="T72" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="U72" t="n">
+        <v>563.26</v>
+      </c>
+      <c r="V72" t="n">
+        <v>375.5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="X72" t="n">
+        <v>25.21</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-03-23 17:40:28</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.421</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>EM003</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MOUSE_20260323_003</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2026-03-23</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>17:40:28</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>16992</v>
+      </c>
+      <c r="L73" t="n">
+        <v>16992</v>
+      </c>
+      <c r="M73" t="n">
+        <v>37651.44</v>
+      </c>
+      <c r="N73" t="n">
+        <v>22590.86</v>
+      </c>
+      <c r="O73" t="n">
+        <v>15060.57</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>14</v>
+      </c>
+      <c r="R73" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="S73" t="n">
+        <v>398.75</v>
+      </c>
+      <c r="T73" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="U73" t="n">
+        <v>239.25</v>
+      </c>
+      <c r="V73" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="X73" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.421</v>
       </c>
     </row>
   </sheetData>
@@ -6579,7 +8293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6642,20 +8356,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-03-02 13:43:00</t>
+          <t>2026-03-02 10:40:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-03-02 18:48:21</t>
+          <t>2026-03-02 13:47:43</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18321</v>
+        <v>11263</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05:05:00</t>
+          <t>03:07:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6672,7 +8386,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BROWSER_20260303_00</t>
+          <t>BROWSER_20260302_01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6682,25 +8396,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-03-03 10:17:00</t>
+          <t>2026-03-02 11:22:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-03-03 12:51:48</t>
+          <t>2026-03-02 14:02:45</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9288</v>
+        <v>9645</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02:34:00</t>
+          <t>02:40:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6712,7 +8426,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20260303_01</t>
+          <t>BROWSER_20260303_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6722,20 +8436,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-03-03 08:18:00</t>
+          <t>2026-03-03 12:27:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-03-03 11:11:20</t>
+          <t>2026-03-03 18:16:59</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10400</v>
+        <v>20999</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02:53:00</t>
+          <t>05:49:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6762,20 +8476,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-03-04 09:17:00</t>
+          <t>2026-03-04 09:37:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-03-04 12:43:22</t>
+          <t>2026-03-04 12:10:32</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12382</v>
+        <v>9212</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>03:26:00</t>
+          <t>02:33:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6802,20 +8516,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-03-04 12:44:00</t>
+          <t>2026-03-04 11:04:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-03-04 16:02:46</t>
+          <t>2026-03-04 14:09:39</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11926</v>
+        <v>11139</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>03:18:00</t>
+          <t>03:05:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6842,20 +8556,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-03-05 13:27:00</t>
+          <t>2026-03-05 08:02:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-03-05 18:31:52</t>
+          <t>2026-03-05 14:03:38</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18292</v>
+        <v>21698</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>05:04:00</t>
+          <t>06:01:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6882,20 +8596,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-03-06 15:47:00</t>
+          <t>2026-03-06 15:49:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-03-06 21:22:29</t>
+          <t>2026-03-06 22:30:32</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20129</v>
+        <v>24092</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>06:41:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6922,20 +8636,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-03-09 15:54:00</t>
+          <t>2026-03-09 10:50:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-03-09 22:35:14</t>
+          <t>2026-03-09 15:51:25</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24074</v>
+        <v>18085</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>06:41:00</t>
+          <t>05:01:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -6962,20 +8676,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-03-10 13:21:00</t>
+          <t>2026-03-10 13:39:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-03-10 16:37:45</t>
+          <t>2026-03-10 20:37:26</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>11805</v>
+        <v>25106</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>03:16:00</t>
+          <t>06:58:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -6992,7 +8706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260310_01</t>
+          <t>BROWSER_20260311_00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7002,25 +8716,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-03-10 11:29:00</t>
+          <t>2026-03-11 10:04:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-03-10 14:57:35</t>
+          <t>2026-03-11 12:50:19</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12515</v>
+        <v>9979</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>03:28:00</t>
+          <t>02:46:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7032,7 +8746,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260311_00</t>
+          <t>BROWSER_20260311_01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7042,20 +8756,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-03-11 14:57:00</t>
+          <t>2026-03-11 12:21:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-03-11 18:19:31</t>
+          <t>2026-03-11 15:05:23</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12151</v>
+        <v>9863</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>03:22:00</t>
+          <t>02:44:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7072,7 +8786,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260311_01</t>
+          <t>BROWSER_20260312_00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7082,25 +8796,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-03-11 13:30:00</t>
+          <t>2026-03-12 09:07:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-03-11 16:11:22</t>
+          <t>2026-03-12 15:40:21</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9682</v>
+        <v>23601</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02:41:00</t>
+          <t>06:33:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7112,7 +8826,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260312_00</t>
+          <t>BROWSER_20260313_00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7122,25 +8836,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-03-12 12:17:00</t>
+          <t>2026-03-13 11:54:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-03-12 18:20:25</t>
+          <t>2026-03-13 16:54:02</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21805</v>
+        <v>18002</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>06:03:00</t>
+          <t>05:00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7152,7 +8866,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260313_00</t>
+          <t>BROWSER_20260316_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7162,25 +8876,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-03-13 09:01:00</t>
+          <t>2026-03-16 10:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-03-13 11:48:04</t>
+          <t>2026-03-16 15:00:22</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>10024</v>
+        <v>18022</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>05:00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7192,7 +8906,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260313_01</t>
+          <t>BROWSER_20260317_00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7202,25 +8916,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-03-13 10:23:00</t>
+          <t>2026-03-17 13:56:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-03-13 13:05:59</t>
+          <t>2026-03-17 16:49:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9779</v>
+        <v>10380</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>02:42:00</t>
+          <t>02:53:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7232,7 +8946,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260316_00</t>
+          <t>BROWSER_20260317_01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7242,25 +8956,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-03-16 12:09:00</t>
+          <t>2026-03-17 14:33:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-03-16 14:43:28</t>
+          <t>2026-03-17 17:39:35</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9268</v>
+        <v>11195</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>02:34:00</t>
+          <t>03:06:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7272,7 +8986,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260316_01</t>
+          <t>BROWSER_20260318_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7282,25 +8996,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-03-16 08:35:00</t>
+          <t>2026-03-18 11:44:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-03-16 11:20:58</t>
+          <t>2026-03-18 17:32:01</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9958</v>
+        <v>20881</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>05:48:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7312,7 +9026,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260317_00</t>
+          <t>BROWSER_20260319_00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7322,25 +9036,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-03-17 10:31:00</t>
+          <t>2026-03-19 15:06:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-03-17 16:50:28</t>
+          <t>2026-03-19 18:30:16</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22768</v>
+        <v>12256</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>06:19:00</t>
+          <t>03:24:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7352,7 +9066,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260318_00</t>
+          <t>BROWSER_20260319_01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7362,25 +9076,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-03-18 13:14:00</t>
+          <t>2026-03-19 10:43:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-03-18 19:30:28</t>
+          <t>2026-03-19 13:51:17</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22588</v>
+        <v>11297</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>06:16:00</t>
+          <t>03:08:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7392,7 +9106,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BROWSER_20260319_00</t>
+          <t>BROWSER_20260320_00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7402,25 +9116,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-03-19 14:49:00</t>
+          <t>2026-03-20 08:38:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-03-19 19:53:04</t>
+          <t>2026-03-20 11:41:32</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18244</v>
+        <v>11012</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05:04:00</t>
+          <t>03:03:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7432,7 +9146,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BROWSER_20260320_00</t>
+          <t>BROWSER_20260320_01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7442,20 +9156,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-03-20 15:20:00</t>
+          <t>2026-03-20 09:36:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-03-20 17:53:57</t>
+          <t>2026-03-20 12:59:26</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9237</v>
+        <v>12206</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>02:33:00</t>
+          <t>03:23:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -7472,7 +9186,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BROWSER_20260320_01</t>
+          <t>BROWSER_20260323_00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7482,25 +9196,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-03-20 09:09:00</t>
+          <t>2026-03-23 09:34:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-03-20 11:48:34</t>
+          <t>2026-03-23 16:07:42</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9574</v>
+        <v>23622</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>02:39:00</t>
+          <t>06:33:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-23</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7512,7 +9226,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BROWSER_20260323_00</t>
+          <t>BROWSER_20260324_00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7522,25 +9236,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-03-23 10:09:00</t>
+          <t>2026-03-24 15:26:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-03-23 13:02:32</t>
+          <t>2026-03-24 21:03:09</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10412</v>
+        <v>20229</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>02:53:00</t>
+          <t>05:37:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-24</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7552,7 +9266,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BROWSER_20260323_01</t>
+          <t>BROWSER_20260325_00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7562,148 +9276,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2026-03-23 10:58:00</t>
+          <t>2026-03-25 12:51:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2026-03-23 14:21:06</t>
+          <t>2026-03-25 18:45:56</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12186</v>
+        <v>21296</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>03:23:00</t>
+          <t>05:54:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-03-25</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>BROWSER_20260324_00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2026-03-24 12:24:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2026-03-24 18:37:35</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>22415</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>06:13:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2026-03-24</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BROWSER_20260325_00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2026-03-25 13:05:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2026-03-25 16:27:02</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>12122</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>03:22:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>BROWSER_20260325_01</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>EM003</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2026-03-25 15:50:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2026-03-25 18:56:15</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>11175</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>03:06:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2026-03-25</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
